--- a/7月制作内容/系统文档/【蔡文吉】我的房间文档.xlsx
+++ b/7月制作内容/系统文档/【蔡文吉】我的房间文档.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
   <si>
     <t>我的房间</t>
   </si>
@@ -70,6 +70,12 @@
     <t>换装界面</t>
   </si>
   <si>
+    <t>图3.1.A</t>
+  </si>
+  <si>
+    <t>图3.1.B</t>
+  </si>
+  <si>
     <t>单击，返回我的房间界面</t>
   </si>
   <si>
@@ -77,6 +83,9 @@
   </si>
   <si>
     <t>单击，切换标签页及部件列表内容</t>
+  </si>
+  <si>
+    <t>初始默认选中发型分页</t>
   </si>
   <si>
     <t>部件图标</t>
@@ -84,7 +93,7 @@
   <si>
     <t>单击
 已拥有部件：选中部件直接试穿，左侧角色形象改变
-未拥有部件：显示获取途径</t>
+未拥有部件：显示获取途径(图3.1.B)</t>
   </si>
   <si>
     <t>部件边框表示品质依次为：
@@ -93,7 +102,7 @@
 已穿戴：右上角显示穿戴图标
 已拥有并试穿：图标下方显示试穿中
 已拥有无操作：仅显示图标及品质
-未解锁：灰色遮罩，中间显示铜锁图标，无法试穿</t>
+未解锁：灰色遮罩，中间显示铜锁图标</t>
   </si>
   <si>
     <t>保存装扮按钮</t>
@@ -109,6 +118,24 @@
   </si>
   <si>
     <t>升级界面</t>
+  </si>
+  <si>
+    <t>图3.2.A</t>
+  </si>
+  <si>
+    <t>图3.2.B</t>
+  </si>
+  <si>
+    <t>关闭按钮</t>
+  </si>
+  <si>
+    <t>晋升按钮</t>
+  </si>
+  <si>
+    <t>单击，提升玩家等级</t>
+  </si>
+  <si>
+    <t>威望值不足时，弹出提示信息（图3.2.B）</t>
   </si>
 </sst>
 </file>
@@ -117,9 +144,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -137,14 +164,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -160,14 +187,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,17 +231,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,7 +247,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,14 +274,6 @@
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -253,26 +294,12 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -289,49 +316,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,133 +496,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,24 +527,44 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,17 +584,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,31 +608,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,10 +630,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -615,7 +642,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -624,128 +651,128 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -755,7 +782,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1364,6 +1397,917 @@
         <a:xfrm>
           <a:off x="2790825" y="8790940"/>
           <a:ext cx="3469005" cy="6161405"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>80010</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>37465</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2762250" y="15430500"/>
+          <a:ext cx="3489960" cy="5695315"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="椭圆形标注 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4581525" y="13982700"/>
+          <a:ext cx="428625" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 39185"/>
+            <a:gd name="adj2" fmla="val 88730"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="椭圆形标注 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5200650" y="8839200"/>
+          <a:ext cx="428625" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 99185"/>
+            <a:gd name="adj2" fmla="val 7777"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>466725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="椭圆形标注 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4572000" y="9496425"/>
+          <a:ext cx="428625" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 99185"/>
+            <a:gd name="adj2" fmla="val 7777"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>628650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>1028700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="椭圆形标注 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4533900" y="10058400"/>
+          <a:ext cx="428625" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 225851"/>
+            <a:gd name="adj2" fmla="val -56507"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="椭圆形标注 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5667375" y="14135100"/>
+          <a:ext cx="428625" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -3037"/>
+            <a:gd name="adj2" fmla="val 86349"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>194310</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>216535</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13529310" y="8848725"/>
+          <a:ext cx="3451225" cy="6132195"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>180340</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>66040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>27305</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13515340" y="15496540"/>
+          <a:ext cx="3318510" cy="5619115"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1637,10 +2581,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="C2:O79"/>
+  <dimension ref="C2:S83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E80" sqref="E80"/>
+    <sheetView tabSelected="1" topLeftCell="B73" workbookViewId="0">
+      <selection activeCell="M111" sqref="M111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1753,6 +2697,14 @@
         <v>17</v>
       </c>
     </row>
+    <row r="51" spans="7:19">
+      <c r="G51" t="s">
+        <v>18</v>
+      </c>
+      <c r="S51" t="s">
+        <v>19</v>
+      </c>
+    </row>
     <row r="52" spans="11:15">
       <c r="K52" s="1" t="s">
         <v>6</v>
@@ -1770,71 +2722,135 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="11:13">
-      <c r="K53">
+    <row r="53" spans="11:15">
+      <c r="K53" s="3">
         <v>1</v>
       </c>
-      <c r="L53" t="s">
+      <c r="L53" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M53" t="s">
-        <v>18</v>
-      </c>
+      <c r="M53" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
     </row>
-    <row r="54" ht="27" spans="11:13">
-      <c r="K54">
+    <row r="54" ht="27" spans="11:15">
+      <c r="K54" s="3">
         <v>2</v>
       </c>
-      <c r="L54" t="s">
-        <v>19</v>
-      </c>
-      <c r="M54" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="L54" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M54" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O54" s="3"/>
     </row>
-    <row r="55" ht="135" spans="11:14">
-      <c r="K55">
+    <row r="55" ht="135" spans="11:15">
+      <c r="K55" s="3">
         <v>3</v>
       </c>
-      <c r="L55" t="s">
-        <v>21</v>
-      </c>
-      <c r="M55" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N55" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="L55" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M55" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N55" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="11:13">
-      <c r="K56">
+    <row r="56" spans="11:15">
+      <c r="K56" s="3">
         <v>4</v>
       </c>
-      <c r="L56" t="s">
-        <v>24</v>
-      </c>
-      <c r="M56" t="s">
-        <v>25</v>
-      </c>
+      <c r="L56" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M56" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="11:13">
-      <c r="K57">
+    <row r="57" spans="11:15">
+      <c r="K57" s="3">
         <v>5</v>
       </c>
-      <c r="L57" t="s">
-        <v>26</v>
-      </c>
-      <c r="M57" t="s">
-        <v>27</v>
-      </c>
+      <c r="L57" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N57" s="3"/>
+      <c r="O57" s="3"/>
     </row>
     <row r="79" spans="4:5">
       <c r="D79">
         <v>3.2</v>
       </c>
       <c r="E79" t="s">
-        <v>28</v>
-      </c>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="80" spans="7:18">
+      <c r="G80" t="s">
+        <v>32</v>
+      </c>
+      <c r="R80" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="81" spans="11:15">
+      <c r="K81" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M81" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N81" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O81" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="11:15">
+      <c r="K82" s="3">
+        <v>1</v>
+      </c>
+      <c r="L82" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M82" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" ht="27" spans="11:15">
+      <c r="K83" s="3">
+        <v>2</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N83" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="O83" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/7月制作内容/系统文档/【蔡文吉】我的房间文档.xlsx
+++ b/7月制作内容/系统文档/【蔡文吉】我的房间文档.xlsx
@@ -93,7 +93,7 @@
   <si>
     <t>单击
 已拥有部件：选中部件直接试穿，左侧角色形象改变
-未拥有部件：显示获取途径(图3.1.B)</t>
+未拥有部件：显示获取途径(图3.1.B)显示3秒消失，或者点击其他任意位置关闭</t>
   </si>
   <si>
     <t>部件边框表示品质依次为：
@@ -143,10 +143,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -154,49 +154,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -210,7 +167,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,7 +196,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,19 +216,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -277,6 +247,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -287,7 +265,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,6 +278,28 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -316,25 +316,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,157 +496,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,13 +525,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,8 +543,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,39 +564,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -604,6 +575,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,6 +604,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -630,10 +630,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -642,137 +642,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -781,12 +781,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -898,16 +892,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -916,7 +910,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4238625" y="2724150"/>
+          <a:off x="5076825" y="2809875"/>
           <a:ext cx="428625" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -1055,16 +1049,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1073,7 +1067,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4210050" y="3695700"/>
+          <a:off x="4953000" y="4267200"/>
           <a:ext cx="428625" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -1212,16 +1206,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1230,7 +1224,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4505325" y="6934200"/>
+          <a:off x="5210175" y="7000875"/>
           <a:ext cx="428625" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -2583,8 +2577,8 @@
   <sheetPr/>
   <dimension ref="C2:S83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B73" workbookViewId="0">
-      <selection activeCell="M111" sqref="M111"/>
+    <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
+      <selection activeCell="M55" sqref="M55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2723,73 +2717,73 @@
       </c>
     </row>
     <row r="53" spans="11:15">
-      <c r="K53" s="3">
+      <c r="K53" s="2">
         <v>1</v>
       </c>
-      <c r="L53" s="3" t="s">
+      <c r="L53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M53" s="3" t="s">
+      <c r="M53" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N53" s="3"/>
-      <c r="O53" s="3"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
     </row>
     <row r="54" ht="27" spans="11:15">
-      <c r="K54" s="3">
+      <c r="K54" s="2">
         <v>2</v>
       </c>
-      <c r="L54" s="3" t="s">
+      <c r="L54" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M54" s="4" t="s">
+      <c r="M54" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="N54" s="3" t="s">
+      <c r="N54" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O54" s="3"/>
+      <c r="O54" s="2"/>
     </row>
     <row r="55" ht="135" spans="11:15">
-      <c r="K55" s="3">
+      <c r="K55" s="2">
         <v>3</v>
       </c>
-      <c r="L55" s="3" t="s">
+      <c r="L55" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M55" s="4" t="s">
+      <c r="M55" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="N55" s="4" t="s">
+      <c r="N55" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="O55" s="3"/>
+      <c r="O55" s="2"/>
     </row>
     <row r="56" spans="11:15">
-      <c r="K56" s="3">
+      <c r="K56" s="2">
         <v>4</v>
       </c>
-      <c r="L56" s="3" t="s">
+      <c r="L56" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="M56" s="3" t="s">
+      <c r="M56" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N56" s="3"/>
-      <c r="O56" s="3"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
     </row>
     <row r="57" spans="11:15">
-      <c r="K57" s="3">
+      <c r="K57" s="2">
         <v>5</v>
       </c>
-      <c r="L57" s="3" t="s">
+      <c r="L57" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="M57" s="3" t="s">
+      <c r="M57" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N57" s="3"/>
-      <c r="O57" s="3"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
     </row>
     <row r="79" spans="4:5">
       <c r="D79">
@@ -2825,32 +2819,32 @@
       </c>
     </row>
     <row r="82" spans="11:15">
-      <c r="K82" s="3">
+      <c r="K82" s="2">
         <v>1</v>
       </c>
-      <c r="L82" s="3" t="s">
+      <c r="L82" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="M82" s="3" t="s">
+      <c r="M82" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N82" s="3"/>
-      <c r="O82" s="3"/>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
     </row>
     <row r="83" ht="27" spans="11:15">
-      <c r="K83" s="3">
+      <c r="K83" s="2">
         <v>2</v>
       </c>
-      <c r="L83" s="3" t="s">
+      <c r="L83" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="M83" s="3" t="s">
+      <c r="M83" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N83" s="5" t="s">
+      <c r="N83" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="O83" s="3"/>
+      <c r="O83" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/7月制作内容/系统文档/【蔡文吉】我的房间文档.xlsx
+++ b/7月制作内容/系统文档/【蔡文吉】我的房间文档.xlsx
@@ -7,37 +7,83 @@
     <workbookView windowWidth="24180" windowHeight="13065"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="版本目录" sheetId="2" r:id="rId1"/>
+    <sheet name="v0.1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131">
+  <si>
+    <t>修订记录</t>
+  </si>
+  <si>
+    <t>文档目录</t>
+  </si>
+  <si>
+    <t>版本号</t>
+  </si>
+  <si>
+    <t>修改时间</t>
+  </si>
+  <si>
+    <t>内容</t>
+  </si>
+  <si>
+    <t>修改人</t>
+  </si>
+  <si>
+    <t>1.设计目的</t>
+  </si>
+  <si>
+    <t>v0.1</t>
+  </si>
+  <si>
+    <t>创建文档</t>
+  </si>
+  <si>
+    <t>蔡文吉</t>
+  </si>
+  <si>
+    <t>2.设计思路</t>
+  </si>
+  <si>
+    <t>3.功能说明</t>
+  </si>
+  <si>
+    <t>3.1属性定义</t>
+  </si>
+  <si>
+    <t>4.我的房间界面</t>
+  </si>
+  <si>
+    <t>4.1晋升界面</t>
+  </si>
+  <si>
+    <t>5.配置表</t>
+  </si>
+  <si>
+    <t>6.美术需求</t>
+  </si>
+  <si>
+    <t>6.1界面需求</t>
+  </si>
+  <si>
+    <t>6.2特效需求</t>
+  </si>
+  <si>
+    <t>6.3动画需求</t>
+  </si>
+  <si>
+    <t>6.4场景需求</t>
+  </si>
+  <si>
+    <t>7.音效需求</t>
+  </si>
   <si>
     <t>我的房间</t>
-  </si>
-  <si>
-    <t>版本号</t>
-  </si>
-  <si>
-    <t>修改时间</t>
-  </si>
-  <si>
-    <t>内容</t>
-  </si>
-  <si>
-    <t>修改人</t>
-  </si>
-  <si>
-    <t>v0.1</t>
-  </si>
-  <si>
-    <t>创建文档</t>
-  </si>
-  <si>
-    <t>蔡文吉</t>
   </si>
   <si>
     <t>设计目的</t>
@@ -370,10 +416,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0;[Red]0"/>
   </numFmts>
   <fonts count="20">
@@ -402,9 +448,40 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -415,9 +492,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -425,39 +501,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -485,30 +531,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -523,13 +547,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -544,7 +590,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,55 +668,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -622,7 +698,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -634,67 +758,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,31 +770,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -800,26 +840,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -833,26 +856,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -887,11 +906,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -903,10 +943,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -915,16 +955,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -936,125 +976,122 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1062,9 +1099,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1076,9 +1110,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1106,9 +1137,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1124,22 +1152,16 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="10" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="10" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="10" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1207,16 +1229,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1184275</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>13335</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>949960</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>122555</xdr:rowOff>
+      <xdr:colOff>1035685</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>113030</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1233,7 +1255,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12376150" y="12719685"/>
+          <a:off x="12461875" y="13567410"/>
           <a:ext cx="3337560" cy="5595620"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1249,16 +1271,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>591820</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>160655</xdr:rowOff>
+      <xdr:colOff>601345</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>84455</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1275,7 +1297,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2800350" y="12633960"/>
+          <a:off x="2809875" y="13586460"/>
           <a:ext cx="3573145" cy="5719445"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1292,14 +1314,14 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>2058035</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:colOff>2048510</xdr:colOff>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>142240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>132715</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:colOff>123190</xdr:colOff>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>147955</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1317,7 +1339,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7839710" y="12677140"/>
+          <a:off x="7830185" y="13534390"/>
           <a:ext cx="3484880" cy="5663565"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1334,15 +1356,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1800225</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>1981200</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2228850</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1351,7 +1373,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5324475" y="17297400"/>
+          <a:off x="5505450" y="18249900"/>
           <a:ext cx="428625" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -1490,16 +1512,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1508,7 +1530,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3400425" y="17430750"/>
+          <a:off x="3571875" y="18316575"/>
           <a:ext cx="428625" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -1648,15 +1670,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1898650</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:colOff>1841500</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>69850</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>136525</xdr:rowOff>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1665,7 +1687,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5422900" y="12957175"/>
+          <a:off x="5365750" y="13871575"/>
           <a:ext cx="428625" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -1804,16 +1826,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1003300</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>165735</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>212725</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>118110</xdr:rowOff>
+      <xdr:colOff>517525</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>51435</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1822,7 +1844,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14547850" y="17053560"/>
+          <a:off x="14852650" y="17844135"/>
           <a:ext cx="428625" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -2004,15 +2026,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1495425</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>1543050</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1924050</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>1971675</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2021,7 +2043,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5019675" y="4848225"/>
+          <a:off x="5067300" y="5581650"/>
           <a:ext cx="428625" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -2161,15 +2183,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1257300</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>1514475</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1685925</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>1943100</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2178,7 +2200,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4781550" y="6305550"/>
+          <a:off x="5038725" y="7515225"/>
           <a:ext cx="428625" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -2318,15 +2340,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1647825</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>1666875</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>2076450</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>2095500</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2335,7 +2357,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5172075" y="8858250"/>
+          <a:off x="5191125" y="9820275"/>
           <a:ext cx="428625" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -2733,10 +2755,160 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
+  <dimension ref="B1:L15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="4" max="4" width="38.5" customWidth="1"/>
+    <col min="11" max="11" width="15.125" customWidth="1"/>
+    <col min="12" max="12" width="12.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12">
+      <c r="B1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="K1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="24"/>
+    </row>
+    <row r="2" spans="2:12">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3">
+        <v>43647</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="11:11">
+      <c r="K5" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="12:12">
+      <c r="L6" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="11:11">
+      <c r="K7" s="25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="12:12">
+      <c r="L8" s="25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="11:11">
+      <c r="K9" s="25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="11:11">
+      <c r="K10" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="12:12">
+      <c r="L11" s="25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="12:12">
+      <c r="L12" s="25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="12:12">
+      <c r="L13" s="25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="12:12">
+      <c r="L14" s="25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="11:11">
+      <c r="K15" s="25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:E2"/>
+    <mergeCell ref="K1:L2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="K3" location="v0.1!D10" display="1.设计目的"/>
+    <hyperlink ref="K4" location="v0.1!D14" display="2.设计思路"/>
+    <hyperlink ref="K5" location="v0.1!D18" display="3.功能说明"/>
+    <hyperlink ref="L6" location="v0.1!E20" display="3.1属性定义"/>
+    <hyperlink ref="K7" location="v0.1!D28" display="4.我的房间界面"/>
+    <hyperlink ref="L8" location="v0.1!E73" display="4.1晋升界面"/>
+    <hyperlink ref="K9" location="v0.1!D119" display="5.配置表"/>
+    <hyperlink ref="K10" location="v0.1!D144" display="6.美术需求"/>
+    <hyperlink ref="L11" location="v0.1!E146" display="6.1界面需求"/>
+    <hyperlink ref="L12" location="v0.1!E154" display="6.2特效需求"/>
+    <hyperlink ref="L13" location="v0.1!E160" display="6.3动画需求"/>
+    <hyperlink ref="L14" location="版本目录!E166" display="6.4场景需求"/>
+    <hyperlink ref="K15" location="v0.1!D173" display="7.音效需求"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="C2:M178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C106" workbookViewId="0">
-      <selection activeCell="M127" sqref="M127"/>
+    <sheetView topLeftCell="C151" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2754,35 +2926,35 @@
   <sheetData>
     <row r="2" spans="3:3">
       <c r="C2" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="4:7">
       <c r="D4" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="F4" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="G4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="4:7">
-      <c r="D5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="3">
         <v>43647</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>7</v>
+      <c r="F5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="3:4">
@@ -2790,12 +2962,12 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="3:4">
@@ -2803,12 +2975,12 @@
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="3:4">
@@ -2816,7 +2988,7 @@
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="4:5">
@@ -2824,850 +2996,850 @@
         <v>3.1</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="8:11">
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
     </row>
     <row r="22" spans="5:11">
-      <c r="E22" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" s="9"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
+      <c r="E22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
     </row>
     <row r="23" spans="5:11">
-      <c r="E23" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H23" s="13"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
+      <c r="E23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H23" s="10"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
     </row>
     <row r="24" ht="42" customHeight="1" spans="5:11">
-      <c r="E24" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" s="9"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
+      <c r="E24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
     </row>
     <row r="28" spans="3:4">
       <c r="C28">
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="6:6">
       <c r="F29" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="64" spans="5:13">
-      <c r="E64" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F64" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G64" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H64" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I64" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K64" s="16"/>
-      <c r="L64" s="16"/>
-      <c r="M64" s="5"/>
+      <c r="E64" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I64" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K64" s="13"/>
+      <c r="L64" s="13"/>
+      <c r="M64" s="4"/>
     </row>
     <row r="65" spans="5:13">
-      <c r="E65" s="10">
+      <c r="E65" s="2">
         <v>1</v>
       </c>
-      <c r="F65" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G65" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="H65" s="14"/>
-      <c r="I65" s="14"/>
-      <c r="K65" s="16"/>
-      <c r="L65" s="16"/>
-      <c r="M65" s="5"/>
+      <c r="F65" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G65" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+      <c r="K65" s="13"/>
+      <c r="L65" s="13"/>
+      <c r="M65" s="4"/>
     </row>
     <row r="66" ht="27" spans="5:13">
-      <c r="E66" s="10">
+      <c r="E66" s="2">
         <v>2</v>
       </c>
-      <c r="F66" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G66" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="H66" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="I66" s="14"/>
-      <c r="K66" s="16"/>
-      <c r="L66" s="16"/>
-      <c r="M66" s="5"/>
+      <c r="F66" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H66" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I66" s="11"/>
+      <c r="K66" s="13"/>
+      <c r="L66" s="13"/>
+      <c r="M66" s="4"/>
     </row>
     <row r="67" ht="27" spans="5:13">
-      <c r="E67" s="10">
+      <c r="E67" s="2">
         <v>3</v>
       </c>
-      <c r="F67" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G67" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="H67" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="I67" s="14"/>
-      <c r="K67" s="9"/>
-      <c r="L67" s="9"/>
-      <c r="M67" s="5"/>
+      <c r="F67" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G67" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="H67" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I67" s="11"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="7"/>
+      <c r="M67" s="4"/>
     </row>
     <row r="68" spans="11:13">
-      <c r="K68" s="5"/>
-      <c r="L68" s="5"/>
-      <c r="M68" s="5"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
+      <c r="M68" s="4"/>
     </row>
     <row r="69" spans="11:13">
-      <c r="K69" s="5"/>
-      <c r="L69" s="5"/>
-      <c r="M69" s="5"/>
+      <c r="K69" s="4"/>
+      <c r="L69" s="4"/>
+      <c r="M69" s="4"/>
     </row>
     <row r="73" spans="4:5">
       <c r="D73">
         <v>4.1</v>
       </c>
       <c r="E73" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="74" spans="6:12">
       <c r="F74" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="H74" t="s">
+        <v>54</v>
+      </c>
+      <c r="L74" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="110" spans="5:13">
+      <c r="E110" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="L74" t="s">
+      <c r="F110" s="12" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="110" spans="5:13">
-      <c r="E110" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F110" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G110" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H110" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I110" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K110" s="16"/>
-      <c r="L110" s="16"/>
-      <c r="M110" s="5"/>
+      <c r="G110" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H110" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I110" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K110" s="13"/>
+      <c r="L110" s="13"/>
+      <c r="M110" s="4"/>
     </row>
     <row r="111" spans="5:13">
-      <c r="E111" s="10">
+      <c r="E111" s="2">
         <v>1</v>
       </c>
-      <c r="F111" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G111" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="H111" s="14"/>
-      <c r="I111" s="14"/>
-      <c r="K111" s="16"/>
-      <c r="L111" s="16"/>
-      <c r="M111" s="5"/>
+      <c r="F111" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G111" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H111" s="11"/>
+      <c r="I111" s="11"/>
+      <c r="K111" s="13"/>
+      <c r="L111" s="13"/>
+      <c r="M111" s="4"/>
     </row>
     <row r="112" ht="27" spans="5:13">
-      <c r="E112" s="18">
+      <c r="E112" s="15">
         <v>2</v>
       </c>
-      <c r="F112" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G112" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="H112" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="I112" s="26"/>
-      <c r="K112" s="9"/>
-      <c r="L112" s="9"/>
-      <c r="M112" s="5"/>
+      <c r="F112" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G112" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="H112" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="I112" s="15"/>
+      <c r="K112" s="7"/>
+      <c r="L112" s="7"/>
+      <c r="M112" s="4"/>
     </row>
     <row r="113" spans="5:13">
-      <c r="E113" s="22"/>
-      <c r="F113" s="19"/>
-      <c r="G113" s="20"/>
-      <c r="H113" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="I113" s="27"/>
-      <c r="K113" s="9"/>
-      <c r="L113" s="9"/>
-      <c r="M113" s="5"/>
+      <c r="E113" s="18"/>
+      <c r="F113" s="16"/>
+      <c r="G113" s="16"/>
+      <c r="H113" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="I113" s="18"/>
+      <c r="K113" s="7"/>
+      <c r="L113" s="7"/>
+      <c r="M113" s="4"/>
     </row>
     <row r="114" spans="5:13">
-      <c r="E114" s="10">
+      <c r="E114" s="2">
         <v>3</v>
       </c>
-      <c r="F114" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G114" s="23"/>
-      <c r="H114" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I114" s="14"/>
-      <c r="K114" s="16"/>
-      <c r="L114" s="16"/>
-      <c r="M114" s="5"/>
+      <c r="F114" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G114" s="19"/>
+      <c r="H114" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I114" s="11"/>
+      <c r="K114" s="13"/>
+      <c r="L114" s="13"/>
+      <c r="M114" s="4"/>
     </row>
     <row r="115" spans="5:13">
-      <c r="E115" s="10">
+      <c r="E115" s="2">
         <v>4</v>
       </c>
-      <c r="F115" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G115" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="H115" s="14"/>
-      <c r="I115" s="14"/>
-      <c r="K115" s="16"/>
-      <c r="L115" s="16"/>
-      <c r="M115" s="5"/>
+      <c r="F115" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G115" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H115" s="11"/>
+      <c r="I115" s="11"/>
+      <c r="K115" s="13"/>
+      <c r="L115" s="13"/>
+      <c r="M115" s="4"/>
     </row>
     <row r="116" spans="11:13">
-      <c r="K116" s="5"/>
-      <c r="L116" s="5"/>
-      <c r="M116" s="5"/>
+      <c r="K116" s="4"/>
+      <c r="L116" s="4"/>
+      <c r="M116" s="4"/>
     </row>
     <row r="119" spans="3:4">
       <c r="C119">
         <v>5</v>
       </c>
       <c r="D119" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
     <row r="120" spans="4:5">
       <c r="D120" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E120" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
     </row>
     <row r="121" spans="12:12">
       <c r="L121" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
     </row>
     <row r="122" spans="4:12">
       <c r="D122" t="s">
-        <v>54</v>
-      </c>
-      <c r="E122" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F122" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G122" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H122" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="I122" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="J122" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="K122" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="L122" s="15" t="s">
-        <v>62</v>
+        <v>69</v>
+      </c>
+      <c r="E122" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F122" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G122" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="H122" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="I122" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="J122" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="K122" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="L122" s="12" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="123" spans="4:12">
       <c r="D123" t="s">
-        <v>63</v>
-      </c>
-      <c r="E123" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="F123" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G123" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="H123" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="I123" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="J123" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="K123" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="L123" s="15" t="s">
-        <v>70</v>
+        <v>78</v>
+      </c>
+      <c r="E123" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F123" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G123" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="H123" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="I123" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="J123" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="K123" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="L123" s="12" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="124" spans="4:12">
       <c r="D124" t="s">
-        <v>71</v>
-      </c>
-      <c r="E124" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="F124" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="G124" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="H124" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="I124" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="J124" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="K124" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="L124" s="15" t="s">
-        <v>72</v>
+        <v>86</v>
+      </c>
+      <c r="E124" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F124" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G124" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="H124" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="I124" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="J124" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="K124" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="L124" s="12" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="125" spans="5:12">
-      <c r="E125" s="24">
+      <c r="E125" s="20">
         <v>1</v>
       </c>
-      <c r="F125" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="G125" s="25">
+      <c r="F125" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="G125" s="21">
         <v>0</v>
       </c>
-      <c r="H125" s="24">
+      <c r="H125" s="20">
         <v>3</v>
       </c>
-      <c r="I125" s="24">
+      <c r="I125" s="20">
         <v>3</v>
       </c>
-      <c r="J125" s="24">
+      <c r="J125" s="20">
         <v>3</v>
       </c>
-      <c r="K125" s="24">
+      <c r="K125" s="20">
         <v>3</v>
       </c>
-      <c r="L125" s="10">
+      <c r="L125" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="5:12">
-      <c r="E126" s="24">
+      <c r="E126" s="20">
         <v>2</v>
       </c>
-      <c r="F126" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="G126" s="25">
+      <c r="F126" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="G126" s="21">
         <v>240</v>
       </c>
-      <c r="H126" s="24">
+      <c r="H126" s="20">
         <v>4</v>
       </c>
-      <c r="I126" s="24">
+      <c r="I126" s="20">
         <v>4</v>
       </c>
-      <c r="J126" s="24">
+      <c r="J126" s="20">
         <v>4</v>
       </c>
-      <c r="K126" s="24">
+      <c r="K126" s="20">
         <v>4</v>
       </c>
-      <c r="L126" s="10">
+      <c r="L126" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="5:12">
-      <c r="E127" s="24">
+      <c r="E127" s="20">
         <v>3</v>
       </c>
-      <c r="F127" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="G127" s="25">
+      <c r="F127" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="G127" s="21">
         <v>480</v>
       </c>
-      <c r="H127" s="24">
+      <c r="H127" s="20">
         <v>5</v>
       </c>
-      <c r="I127" s="24">
+      <c r="I127" s="20">
         <v>5</v>
       </c>
-      <c r="J127" s="24">
+      <c r="J127" s="20">
         <v>5</v>
       </c>
-      <c r="K127" s="24">
+      <c r="K127" s="20">
         <v>5</v>
       </c>
-      <c r="L127" s="10">
+      <c r="L127" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="5:12">
-      <c r="E128" s="24">
+      <c r="E128" s="20">
         <v>4</v>
       </c>
-      <c r="F128" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="G128" s="25">
+      <c r="F128" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="G128" s="21">
         <v>720</v>
       </c>
-      <c r="H128" s="24">
+      <c r="H128" s="20">
         <v>6</v>
       </c>
-      <c r="I128" s="24">
+      <c r="I128" s="20">
         <v>6</v>
       </c>
-      <c r="J128" s="24">
+      <c r="J128" s="20">
         <v>6</v>
       </c>
-      <c r="K128" s="24">
+      <c r="K128" s="20">
         <v>6</v>
       </c>
-      <c r="L128" s="10">
+      <c r="L128" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="5:12">
-      <c r="E129" s="24">
+      <c r="E129" s="20">
         <v>5</v>
       </c>
-      <c r="F129" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="G129" s="25">
+      <c r="F129" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="G129" s="21">
         <v>1200</v>
       </c>
-      <c r="H129" s="24">
+      <c r="H129" s="20">
         <v>7</v>
       </c>
-      <c r="I129" s="24">
+      <c r="I129" s="20">
         <v>7</v>
       </c>
-      <c r="J129" s="24">
+      <c r="J129" s="20">
         <v>7</v>
       </c>
-      <c r="K129" s="24">
+      <c r="K129" s="20">
         <v>7</v>
       </c>
-      <c r="L129" s="10">
+      <c r="L129" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="5:12">
-      <c r="E130" s="24">
+      <c r="E130" s="20">
         <v>6</v>
       </c>
-      <c r="F130" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="G130" s="25">
+      <c r="F130" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="G130" s="21">
         <v>1920</v>
       </c>
-      <c r="H130" s="24">
+      <c r="H130" s="20">
         <v>8</v>
       </c>
-      <c r="I130" s="24">
+      <c r="I130" s="20">
         <v>8</v>
       </c>
-      <c r="J130" s="24">
+      <c r="J130" s="20">
         <v>8</v>
       </c>
-      <c r="K130" s="24">
+      <c r="K130" s="20">
         <v>8</v>
       </c>
-      <c r="L130" s="10">
+      <c r="L130" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="131" spans="5:12">
-      <c r="E131" s="24">
+      <c r="E131" s="20">
         <v>7</v>
       </c>
-      <c r="F131" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="G131" s="25">
+      <c r="F131" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="G131" s="21">
         <v>3120</v>
       </c>
-      <c r="H131" s="24">
+      <c r="H131" s="20">
         <v>9</v>
       </c>
-      <c r="I131" s="24">
+      <c r="I131" s="20">
         <v>9</v>
       </c>
-      <c r="J131" s="24">
+      <c r="J131" s="20">
         <v>9</v>
       </c>
-      <c r="K131" s="24">
+      <c r="K131" s="20">
         <v>9</v>
       </c>
-      <c r="L131" s="10">
+      <c r="L131" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="5:12">
-      <c r="E132" s="24">
+      <c r="E132" s="20">
         <v>8</v>
       </c>
-      <c r="F132" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="G132" s="25">
+      <c r="F132" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="G132" s="21">
         <v>5544</v>
       </c>
-      <c r="H132" s="24">
+      <c r="H132" s="20">
         <v>10</v>
       </c>
-      <c r="I132" s="24">
+      <c r="I132" s="20">
         <v>10</v>
       </c>
-      <c r="J132" s="24">
+      <c r="J132" s="20">
         <v>10</v>
       </c>
-      <c r="K132" s="24">
+      <c r="K132" s="20">
         <v>10</v>
       </c>
-      <c r="L132" s="10">
+      <c r="L132" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="133" spans="5:12">
-      <c r="E133" s="24">
+      <c r="E133" s="20">
         <v>9</v>
       </c>
-      <c r="F133" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="G133" s="25">
+      <c r="F133" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="G133" s="21">
         <v>9530.4</v>
       </c>
-      <c r="H133" s="24">
+      <c r="H133" s="20">
         <v>11</v>
       </c>
-      <c r="I133" s="24">
+      <c r="I133" s="20">
         <v>11</v>
       </c>
-      <c r="J133" s="24">
+      <c r="J133" s="20">
         <v>11</v>
       </c>
-      <c r="K133" s="24">
+      <c r="K133" s="20">
         <v>11</v>
       </c>
-      <c r="L133" s="10">
+      <c r="L133" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="134" spans="5:12">
-      <c r="E134" s="24">
+      <c r="E134" s="20">
         <v>10</v>
       </c>
-      <c r="F134" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="G134" s="25">
+      <c r="F134" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="G134" s="21">
         <v>16581.84</v>
       </c>
-      <c r="H134" s="24">
+      <c r="H134" s="20">
         <v>12</v>
       </c>
-      <c r="I134" s="24">
+      <c r="I134" s="20">
         <v>12</v>
       </c>
-      <c r="J134" s="24">
+      <c r="J134" s="20">
         <v>12</v>
       </c>
-      <c r="K134" s="24">
+      <c r="K134" s="20">
         <v>12</v>
       </c>
-      <c r="L134" s="10">
+      <c r="L134" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="5:12">
-      <c r="E135" s="24">
+      <c r="E135" s="20">
         <v>11</v>
       </c>
-      <c r="F135" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="G135" s="25">
+      <c r="F135" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="G135" s="21">
         <v>28723.464</v>
       </c>
-      <c r="H135" s="24">
+      <c r="H135" s="20">
         <v>13</v>
       </c>
-      <c r="I135" s="24">
+      <c r="I135" s="20">
         <v>13</v>
       </c>
-      <c r="J135" s="24">
+      <c r="J135" s="20">
         <v>13</v>
       </c>
-      <c r="K135" s="24">
+      <c r="K135" s="20">
         <v>13</v>
       </c>
-      <c r="L135" s="10">
+      <c r="L135" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="5:12">
-      <c r="E136" s="24">
+      <c r="E136" s="20">
         <v>12</v>
       </c>
-      <c r="F136" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="G136" s="25">
+      <c r="F136" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="G136" s="21">
         <v>49835.8344</v>
       </c>
-      <c r="H136" s="24">
+      <c r="H136" s="20">
         <v>14</v>
       </c>
-      <c r="I136" s="24">
+      <c r="I136" s="20">
         <v>14</v>
       </c>
-      <c r="J136" s="24">
+      <c r="J136" s="20">
         <v>14</v>
       </c>
-      <c r="K136" s="24">
+      <c r="K136" s="20">
         <v>14</v>
       </c>
-      <c r="L136" s="10">
+      <c r="L136" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="137" spans="5:12">
-      <c r="E137" s="24">
+      <c r="E137" s="20">
         <v>13</v>
       </c>
-      <c r="F137" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="G137" s="25">
+      <c r="F137" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="G137" s="21">
         <v>94271.15808</v>
       </c>
-      <c r="H137" s="24">
+      <c r="H137" s="20">
         <v>15</v>
       </c>
-      <c r="I137" s="24">
+      <c r="I137" s="20">
         <v>15</v>
       </c>
-      <c r="J137" s="24">
+      <c r="J137" s="20">
         <v>15</v>
       </c>
-      <c r="K137" s="24">
+      <c r="K137" s="20">
         <v>15</v>
       </c>
-      <c r="L137" s="10">
+      <c r="L137" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="138" spans="5:12">
-      <c r="E138" s="24">
+      <c r="E138" s="20">
         <v>14</v>
       </c>
-      <c r="F138" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="G138" s="25">
+      <c r="F138" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="G138" s="21">
         <v>187339.090224</v>
       </c>
-      <c r="H138" s="24">
+      <c r="H138" s="20">
         <v>16</v>
       </c>
-      <c r="I138" s="24">
+      <c r="I138" s="20">
         <v>16</v>
       </c>
-      <c r="J138" s="24">
+      <c r="J138" s="20">
         <v>16</v>
       </c>
-      <c r="K138" s="24">
+      <c r="K138" s="20">
         <v>16</v>
       </c>
-      <c r="L138" s="10">
+      <c r="L138" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="139" spans="5:12">
-      <c r="E139" s="24">
+      <c r="E139" s="20">
         <v>15</v>
       </c>
-      <c r="F139" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="G139" s="25">
+      <c r="F139" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="G139" s="21">
         <v>394254.3476256</v>
       </c>
-      <c r="H139" s="24">
+      <c r="H139" s="20">
         <v>17</v>
       </c>
-      <c r="I139" s="24">
+      <c r="I139" s="20">
         <v>17</v>
       </c>
-      <c r="J139" s="24">
+      <c r="J139" s="20">
         <v>17</v>
       </c>
-      <c r="K139" s="24">
+      <c r="K139" s="20">
         <v>17</v>
       </c>
-      <c r="L139" s="10">
+      <c r="L139" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="140" spans="5:12">
-      <c r="E140" s="24">
+      <c r="E140" s="20">
         <v>16</v>
       </c>
-      <c r="F140" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="G140" s="25">
+      <c r="F140" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="G140" s="21">
         <v>872390.1567744</v>
       </c>
-      <c r="H140" s="24">
+      <c r="H140" s="20">
         <v>18</v>
       </c>
-      <c r="I140" s="24">
+      <c r="I140" s="20">
         <v>18</v>
       </c>
-      <c r="J140" s="24">
+      <c r="J140" s="20">
         <v>18</v>
       </c>
-      <c r="K140" s="24">
+      <c r="K140" s="20">
         <v>18</v>
       </c>
-      <c r="L140" s="10">
+      <c r="L140" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="141" spans="5:12">
-      <c r="E141" s="24">
+      <c r="E141" s="20">
         <v>17</v>
       </c>
-      <c r="F141" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="G141" s="25">
+      <c r="F141" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="G141" s="21">
         <v>2026631.20704</v>
       </c>
-      <c r="H141" s="24">
+      <c r="H141" s="20">
         <v>19</v>
       </c>
-      <c r="I141" s="24">
+      <c r="I141" s="20">
         <v>19</v>
       </c>
-      <c r="J141" s="24">
+      <c r="J141" s="20">
         <v>19</v>
       </c>
-      <c r="K141" s="24">
+      <c r="K141" s="20">
         <v>19</v>
       </c>
-      <c r="L141" s="10">
+      <c r="L141" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="142" spans="5:12">
-      <c r="E142" s="24">
+      <c r="E142" s="20">
         <v>18</v>
       </c>
-      <c r="F142" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="G142" s="25">
+      <c r="F142" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="G142" s="21">
         <v>4928336.31848448</v>
       </c>
-      <c r="H142" s="24">
+      <c r="H142" s="20">
         <v>20</v>
       </c>
-      <c r="I142" s="24">
+      <c r="I142" s="20">
         <v>20</v>
       </c>
-      <c r="J142" s="24">
+      <c r="J142" s="20">
         <v>20</v>
       </c>
-      <c r="K142" s="24">
+      <c r="K142" s="20">
         <v>20</v>
       </c>
-      <c r="L142" s="10">
+      <c r="L142" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3676,159 +3848,171 @@
         <v>6</v>
       </c>
       <c r="D144" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="146" spans="5:5">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="146" spans="4:5">
+      <c r="D146">
+        <v>6.1</v>
+      </c>
       <c r="E146" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
     </row>
     <row r="148" spans="5:7">
-      <c r="E148" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F148" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G148" s="6" t="s">
-        <v>15</v>
+      <c r="E148" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="149" spans="5:7">
-      <c r="E149" s="10">
+      <c r="E149" s="2">
         <v>1</v>
       </c>
-      <c r="F149" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="G149" s="28" t="s">
-        <v>23</v>
+      <c r="F149" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G149" s="22" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="150" spans="5:7">
-      <c r="E150" s="10">
+      <c r="E150" s="2">
         <v>2</v>
       </c>
-      <c r="F150" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G150" s="29" t="s">
-        <v>38</v>
+      <c r="F150" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G150" s="23" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="151" spans="5:7">
-      <c r="E151" s="10">
+      <c r="E151" s="2">
         <v>3</v>
       </c>
-      <c r="F151" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="G151" s="29" t="s">
+      <c r="F151" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G151" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="154" spans="4:5">
+      <c r="D154">
+        <v>6.2</v>
+      </c>
+      <c r="E154" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="156" spans="5:7">
+      <c r="E156" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F156" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="154" spans="5:5">
-      <c r="E154" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="156" spans="5:7">
-      <c r="E156" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F156" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G156" s="6" t="s">
-        <v>15</v>
+      <c r="G156" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="157" ht="40.5" spans="5:7">
-      <c r="E157" s="10">
+      <c r="E157" s="2">
         <v>1</v>
       </c>
-      <c r="F157" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="G157" s="12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="160" spans="5:5">
+      <c r="F157" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G157" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="160" spans="4:5">
+      <c r="D160">
+        <v>6.3</v>
+      </c>
       <c r="E160" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
     </row>
     <row r="162" spans="5:7">
-      <c r="E162" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F162" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G162" s="6" t="s">
-        <v>15</v>
+      <c r="E162" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="163" ht="81" spans="5:7">
-      <c r="E163" s="10">
+      <c r="E163" s="2">
         <v>1</v>
       </c>
-      <c r="F163" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="G163" s="21" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="166" spans="5:5">
+      <c r="F163" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G163" s="17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="166" spans="4:5">
+      <c r="D166">
+        <v>6.4</v>
+      </c>
       <c r="E166" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
     </row>
     <row r="168" spans="5:7">
-      <c r="E168" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F168" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G168" s="6" t="s">
-        <v>15</v>
+      <c r="E168" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="169" ht="81" spans="5:7">
-      <c r="E169" s="3">
+      <c r="E169" s="2">
         <v>1</v>
       </c>
-      <c r="F169" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G169" s="30" t="s">
-        <v>104</v>
+      <c r="F169" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G169" s="17" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="170" spans="5:7">
-      <c r="E170" s="3">
+      <c r="E170" s="2">
         <v>2</v>
       </c>
-      <c r="F170" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G170" s="31" t="s">
-        <v>38</v>
+      <c r="F170" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G170" s="23" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="171" spans="5:7">
-      <c r="E171" s="3">
+      <c r="E171" s="2">
         <v>3</v>
       </c>
-      <c r="F171" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G171" s="31" t="s">
-        <v>40</v>
+      <c r="F171" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G171" s="23" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="173" spans="3:4">
@@ -3836,71 +4020,71 @@
         <v>7</v>
       </c>
       <c r="D173" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
     </row>
     <row r="175" spans="5:9">
       <c r="E175" s="1" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="I175" s="1" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
     </row>
     <row r="176" spans="5:9">
-      <c r="E176" s="3">
+      <c r="E176" s="2">
         <v>1</v>
       </c>
-      <c r="F176" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="G176" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="H176" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="I176" s="3" t="s">
-        <v>113</v>
+      <c r="F176" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H176" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I176" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="177" spans="5:9">
-      <c r="E177" s="3">
+      <c r="E177" s="2">
         <v>2</v>
       </c>
-      <c r="F177" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="G177" s="3"/>
-      <c r="H177" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="I177" s="3" t="s">
-        <v>113</v>
+      <c r="F177" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G177" s="2"/>
+      <c r="H177" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I177" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="178" spans="5:9">
-      <c r="E178" s="3">
+      <c r="E178" s="2">
         <v>3</v>
       </c>
-      <c r="F178" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="G178" s="3"/>
-      <c r="H178" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="I178" s="3" t="s">
-        <v>113</v>
+      <c r="F178" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G178" s="2"/>
+      <c r="H178" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I178" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/7月制作内容/系统文档/【蔡文吉】我的房间文档.xlsx
+++ b/7月制作内容/系统文档/【蔡文吉】我的房间文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13065"/>
+    <workbookView windowWidth="24180" windowHeight="13065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="版本目录" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133">
   <si>
     <t>修订记录</t>
   </si>
@@ -126,6 +126,12 @@
   </si>
   <si>
     <t>主角等级，通过成长值提升，在游戏中体现主角身份变化，解锁游戏内容。</t>
+  </si>
+  <si>
+    <t>升级规则</t>
+  </si>
+  <si>
+    <t>玩家主角成长值达到升级条件后，需手动进行晋升，如果玩家不晋升，依旧可以获得成长值，成长值上限不受，身份影响。</t>
   </si>
   <si>
     <t>我的房间界面</t>
@@ -416,10 +422,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0;[Red]0"/>
   </numFmts>
   <fonts count="20">
@@ -447,10 +453,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -463,14 +470,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -478,7 +492,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -486,7 +500,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -501,14 +522,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -516,15 +544,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -540,6 +560,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -548,28 +576,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -590,133 +596,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -734,7 +614,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -746,19 +728,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -770,7 +770,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -847,35 +853,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -887,6 +864,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -921,17 +931,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -943,10 +949,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -955,16 +961,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -976,129 +982,123 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1110,6 +1110,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1125,10 +1128,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1160,6 +1163,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
@@ -1985,13 +1994,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>61595</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2009,7 +2018,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2857500" y="5400675"/>
+          <a:off x="2857500" y="4886325"/>
           <a:ext cx="3114675" cy="5481320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2026,15 +2035,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1543050</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>1495425</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1971675</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>1924050</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2043,7 +2052,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5067300" y="5581650"/>
+          <a:off x="5019675" y="5219700"/>
           <a:ext cx="428625" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -2183,15 +2192,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1514475</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>1323975</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1943100</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>1752600</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2200,7 +2209,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5038725" y="7515225"/>
+          <a:off x="4848225" y="6867525"/>
           <a:ext cx="428625" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -2340,15 +2349,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1666875</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>1619250</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>2095500</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>2047875</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2357,7 +2366,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5191125" y="9820275"/>
+          <a:off x="5143500" y="9277350"/>
           <a:ext cx="428625" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -2757,8 +2766,8 @@
   <sheetPr/>
   <dimension ref="B1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2769,36 +2778,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12">
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="K1" s="24" t="s">
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="K1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="24"/>
+      <c r="L1" s="23"/>
     </row>
     <row r="2" spans="2:12">
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="K3" s="25" t="s">
@@ -2806,74 +2815,74 @@
       </c>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="24">
         <v>43647</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="25" t="s">
+      <c r="K4" s="26" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="11:11">
-      <c r="K5" s="25" t="s">
+      <c r="K5" s="26" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="12:12">
-      <c r="L6" s="25" t="s">
+      <c r="L6" s="26" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="11:11">
-      <c r="K7" s="25" t="s">
+      <c r="K7" s="26" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="12:12">
-      <c r="L8" s="25" t="s">
+      <c r="L8" s="26" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="11:11">
-      <c r="K9" s="25" t="s">
+      <c r="K9" s="26" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="11:11">
-      <c r="K10" s="25" t="s">
+      <c r="K10" s="26" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="12:12">
-      <c r="L11" s="25" t="s">
+      <c r="L11" s="26" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="12:12">
-      <c r="L12" s="25" t="s">
+      <c r="L12" s="26" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="12:12">
-      <c r="L13" s="25" t="s">
+      <c r="L13" s="26" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="12:12">
-      <c r="L14" s="25" t="s">
+      <c r="L14" s="26" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="11:11">
-      <c r="K15" s="25" t="s">
+      <c r="K15" s="26" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2905,10 +2914,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="C2:M178"/>
+  <dimension ref="C2:M175"/>
   <sheetViews>
-    <sheetView topLeftCell="C151" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2929,1182 +2938,1167 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="4:7">
-      <c r="D4" s="1" t="s">
+    <row r="5" spans="3:4">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="4:4">
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4">
+      <c r="C9">
         <v>2</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="4:4">
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4">
+      <c r="C13">
         <v>3</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="4:5">
+      <c r="D15">
+        <v>3.1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="8:11">
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="5:11">
+      <c r="E17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+    </row>
+    <row r="18" spans="5:11">
+      <c r="E18" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="9"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" ht="42" customHeight="1" spans="5:11">
+      <c r="E19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+    </row>
+    <row r="21" spans="4:5">
+      <c r="D21">
+        <v>3.2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="5:5">
+      <c r="E23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4">
+      <c r="C25">
         <v>4</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="4:7">
-      <c r="D5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="3">
-        <v>43647</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="3:4">
-      <c r="C10">
+      <c r="D25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="6:6">
+      <c r="F26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" spans="5:13">
+      <c r="E61" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K61" s="13"/>
+      <c r="L61" s="13"/>
+      <c r="M61" s="1"/>
+    </row>
+    <row r="62" spans="5:13">
+      <c r="E62" s="6">
         <v>1</v>
       </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="4:4">
-      <c r="D12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="3:4">
-      <c r="C14">
+      <c r="F62" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G62" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
+      <c r="K62" s="13"/>
+      <c r="L62" s="13"/>
+      <c r="M62" s="1"/>
+    </row>
+    <row r="63" ht="27" spans="5:13">
+      <c r="E63" s="6">
         <v>2</v>
       </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="4:4">
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4">
-      <c r="C18">
+      <c r="F63" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H63" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I63" s="10"/>
+      <c r="K63" s="13"/>
+      <c r="L63" s="13"/>
+      <c r="M63" s="1"/>
+    </row>
+    <row r="64" ht="27" spans="5:13">
+      <c r="E64" s="6">
         <v>3</v>
       </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="4:5">
-      <c r="D20">
-        <v>3.1</v>
-      </c>
-      <c r="E20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="8:11">
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-    </row>
-    <row r="22" spans="5:11">
-      <c r="E22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-    </row>
-    <row r="23" spans="5:11">
-      <c r="E23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H23" s="10"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-    </row>
-    <row r="24" ht="42" customHeight="1" spans="5:11">
-      <c r="E24" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-    </row>
-    <row r="28" spans="3:4">
-      <c r="C28">
-        <v>4</v>
-      </c>
-      <c r="D28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="6:6">
-      <c r="F29" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="64" spans="5:13">
-      <c r="E64" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F64" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G64" s="6" t="s">
+      <c r="F64" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G64" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H64" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I64" s="10"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="5"/>
+      <c r="M64" s="1"/>
+    </row>
+    <row r="65" spans="11:13">
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+    </row>
+    <row r="66" spans="11:13">
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+    </row>
+    <row r="70" spans="4:5">
+      <c r="D70">
+        <v>4.1</v>
+      </c>
+      <c r="E70" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="71" spans="6:12">
+      <c r="F71" t="s">
+        <v>55</v>
+      </c>
+      <c r="H71" t="s">
+        <v>56</v>
+      </c>
+      <c r="L71" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="107" spans="5:13">
+      <c r="E107" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H64" s="6" t="s">
+      <c r="F107" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="I64" s="6" t="s">
+      <c r="G107" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="K64" s="13"/>
-      <c r="L64" s="13"/>
-      <c r="M64" s="4"/>
-    </row>
-    <row r="65" spans="5:13">
-      <c r="E65" s="2">
+      <c r="H107" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I107" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K107" s="13"/>
+      <c r="L107" s="13"/>
+      <c r="M107" s="1"/>
+    </row>
+    <row r="108" spans="5:13">
+      <c r="E108" s="6">
         <v>1</v>
       </c>
-      <c r="F65" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G65" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="H65" s="11"/>
-      <c r="I65" s="11"/>
-      <c r="K65" s="13"/>
-      <c r="L65" s="13"/>
-      <c r="M65" s="4"/>
-    </row>
-    <row r="66" ht="27" spans="5:13">
-      <c r="E66" s="2">
+      <c r="F108" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G108" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="H108" s="10"/>
+      <c r="I108" s="10"/>
+      <c r="K108" s="13"/>
+      <c r="L108" s="13"/>
+      <c r="M108" s="1"/>
+    </row>
+    <row r="109" ht="27" spans="5:13">
+      <c r="E109" s="14">
         <v>2</v>
       </c>
-      <c r="F66" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G66" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H66" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="I66" s="11"/>
-      <c r="K66" s="13"/>
-      <c r="L66" s="13"/>
-      <c r="M66" s="4"/>
-    </row>
-    <row r="67" ht="27" spans="5:13">
-      <c r="E67" s="2">
+      <c r="F109" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="G109" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H109" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="I109" s="14"/>
+      <c r="K109" s="5"/>
+      <c r="L109" s="5"/>
+      <c r="M109" s="1"/>
+    </row>
+    <row r="110" spans="5:13">
+      <c r="E110" s="17"/>
+      <c r="F110" s="15"/>
+      <c r="G110" s="15"/>
+      <c r="H110" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="I110" s="17"/>
+      <c r="K110" s="5"/>
+      <c r="L110" s="5"/>
+      <c r="M110" s="1"/>
+    </row>
+    <row r="111" spans="5:13">
+      <c r="E111" s="6">
         <v>3</v>
       </c>
-      <c r="F67" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G67" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="H67" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="I67" s="11"/>
-      <c r="K67" s="7"/>
-      <c r="L67" s="7"/>
-      <c r="M67" s="4"/>
-    </row>
-    <row r="68" spans="11:13">
-      <c r="K68" s="4"/>
-      <c r="L68" s="4"/>
-      <c r="M68" s="4"/>
-    </row>
-    <row r="69" spans="11:13">
-      <c r="K69" s="4"/>
-      <c r="L69" s="4"/>
-      <c r="M69" s="4"/>
-    </row>
-    <row r="73" spans="4:5">
-      <c r="D73">
-        <v>4.1</v>
-      </c>
-      <c r="E73" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="74" spans="6:12">
-      <c r="F74" t="s">
-        <v>53</v>
-      </c>
-      <c r="H74" t="s">
-        <v>54</v>
-      </c>
-      <c r="L74" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="110" spans="5:13">
-      <c r="E110" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F110" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G110" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H110" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I110" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="K110" s="13"/>
-      <c r="L110" s="13"/>
-      <c r="M110" s="4"/>
-    </row>
-    <row r="111" spans="5:13">
-      <c r="E111" s="2">
-        <v>1</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G111" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H111" s="11"/>
-      <c r="I111" s="11"/>
+      <c r="F111" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G111" s="18"/>
+      <c r="H111" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="I111" s="10"/>
       <c r="K111" s="13"/>
       <c r="L111" s="13"/>
-      <c r="M111" s="4"/>
-    </row>
-    <row r="112" ht="27" spans="5:13">
-      <c r="E112" s="15">
+      <c r="M111" s="1"/>
+    </row>
+    <row r="112" spans="5:13">
+      <c r="E112" s="6">
+        <v>4</v>
+      </c>
+      <c r="F112" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G112" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H112" s="10"/>
+      <c r="I112" s="10"/>
+      <c r="K112" s="13"/>
+      <c r="L112" s="13"/>
+      <c r="M112" s="1"/>
+    </row>
+    <row r="113" spans="11:13">
+      <c r="K113" s="1"/>
+      <c r="L113" s="1"/>
+      <c r="M113" s="1"/>
+    </row>
+    <row r="116" spans="3:4">
+      <c r="C116">
+        <v>5</v>
+      </c>
+      <c r="D116" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="117" spans="4:5">
+      <c r="D117" t="s">
+        <v>68</v>
+      </c>
+      <c r="E117" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="118" spans="12:12">
+      <c r="L118" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="119" spans="4:12">
+      <c r="D119" t="s">
+        <v>71</v>
+      </c>
+      <c r="E119" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F119" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G119" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H119" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="I119" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="J119" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="K119" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="L119" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="120" spans="4:12">
+      <c r="D120" t="s">
+        <v>80</v>
+      </c>
+      <c r="E120" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F120" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G120" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="H120" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="I120" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="J120" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K120" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="L120" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="121" spans="4:12">
+      <c r="D121" t="s">
+        <v>88</v>
+      </c>
+      <c r="E121" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F121" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G121" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="H121" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I121" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="J121" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="K121" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="L121" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="122" spans="5:12">
+      <c r="E122" s="19">
+        <v>1</v>
+      </c>
+      <c r="F122" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="G122" s="20">
+        <v>0</v>
+      </c>
+      <c r="H122" s="19">
+        <v>3</v>
+      </c>
+      <c r="I122" s="19">
+        <v>3</v>
+      </c>
+      <c r="J122" s="19">
+        <v>3</v>
+      </c>
+      <c r="K122" s="19">
+        <v>3</v>
+      </c>
+      <c r="L122" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="5:12">
+      <c r="E123" s="19">
         <v>2</v>
       </c>
-      <c r="F112" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="G112" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="H112" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="I112" s="15"/>
-      <c r="K112" s="7"/>
-      <c r="L112" s="7"/>
-      <c r="M112" s="4"/>
-    </row>
-    <row r="113" spans="5:13">
-      <c r="E113" s="18"/>
-      <c r="F113" s="16"/>
-      <c r="G113" s="16"/>
-      <c r="H113" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="I113" s="18"/>
-      <c r="K113" s="7"/>
-      <c r="L113" s="7"/>
-      <c r="M113" s="4"/>
-    </row>
-    <row r="114" spans="5:13">
-      <c r="E114" s="2">
+      <c r="F123" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="G123" s="20">
+        <v>240</v>
+      </c>
+      <c r="H123" s="19">
+        <v>4</v>
+      </c>
+      <c r="I123" s="19">
+        <v>4</v>
+      </c>
+      <c r="J123" s="19">
+        <v>4</v>
+      </c>
+      <c r="K123" s="19">
+        <v>4</v>
+      </c>
+      <c r="L123" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="5:12">
+      <c r="E124" s="19">
         <v>3</v>
       </c>
-      <c r="F114" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="G114" s="19"/>
-      <c r="H114" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="I114" s="11"/>
-      <c r="K114" s="13"/>
-      <c r="L114" s="13"/>
-      <c r="M114" s="4"/>
-    </row>
-    <row r="115" spans="5:13">
-      <c r="E115" s="2">
+      <c r="F124" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="G124" s="20">
+        <v>480</v>
+      </c>
+      <c r="H124" s="19">
+        <v>5</v>
+      </c>
+      <c r="I124" s="19">
+        <v>5</v>
+      </c>
+      <c r="J124" s="19">
+        <v>5</v>
+      </c>
+      <c r="K124" s="19">
+        <v>5</v>
+      </c>
+      <c r="L124" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="5:12">
+      <c r="E125" s="19">
         <v>4</v>
       </c>
-      <c r="F115" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G115" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="H115" s="11"/>
-      <c r="I115" s="11"/>
-      <c r="K115" s="13"/>
-      <c r="L115" s="13"/>
-      <c r="M115" s="4"/>
-    </row>
-    <row r="116" spans="11:13">
-      <c r="K116" s="4"/>
-      <c r="L116" s="4"/>
-      <c r="M116" s="4"/>
-    </row>
-    <row r="119" spans="3:4">
-      <c r="C119">
+      <c r="F125" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="G125" s="20">
+        <v>720</v>
+      </c>
+      <c r="H125" s="19">
+        <v>6</v>
+      </c>
+      <c r="I125" s="19">
+        <v>6</v>
+      </c>
+      <c r="J125" s="19">
+        <v>6</v>
+      </c>
+      <c r="K125" s="19">
+        <v>6</v>
+      </c>
+      <c r="L125" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="5:12">
+      <c r="E126" s="19">
         <v>5</v>
       </c>
-      <c r="D119" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="120" spans="4:5">
-      <c r="D120" t="s">
-        <v>66</v>
-      </c>
-      <c r="E120" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="121" spans="12:12">
-      <c r="L121" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="122" spans="4:12">
-      <c r="D122" t="s">
-        <v>69</v>
-      </c>
-      <c r="E122" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="F122" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="G122" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="H122" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="I122" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="J122" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="K122" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="L122" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="123" spans="4:12">
-      <c r="D123" t="s">
-        <v>78</v>
-      </c>
-      <c r="E123" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="F123" s="12" t="s">
+      <c r="F126" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="G126" s="20">
+        <v>1200</v>
+      </c>
+      <c r="H126" s="19">
+        <v>7</v>
+      </c>
+      <c r="I126" s="19">
+        <v>7</v>
+      </c>
+      <c r="J126" s="19">
+        <v>7</v>
+      </c>
+      <c r="K126" s="19">
+        <v>7</v>
+      </c>
+      <c r="L126" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="5:12">
+      <c r="E127" s="19">
+        <v>6</v>
+      </c>
+      <c r="F127" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="G127" s="20">
+        <v>1920</v>
+      </c>
+      <c r="H127" s="19">
+        <v>8</v>
+      </c>
+      <c r="I127" s="19">
+        <v>8</v>
+      </c>
+      <c r="J127" s="19">
+        <v>8</v>
+      </c>
+      <c r="K127" s="19">
+        <v>8</v>
+      </c>
+      <c r="L127" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="5:12">
+      <c r="E128" s="19">
+        <v>7</v>
+      </c>
+      <c r="F128" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="G128" s="20">
+        <v>3120</v>
+      </c>
+      <c r="H128" s="19">
+        <v>9</v>
+      </c>
+      <c r="I128" s="19">
+        <v>9</v>
+      </c>
+      <c r="J128" s="19">
+        <v>9</v>
+      </c>
+      <c r="K128" s="19">
+        <v>9</v>
+      </c>
+      <c r="L128" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="5:12">
+      <c r="E129" s="19">
+        <v>8</v>
+      </c>
+      <c r="F129" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="G129" s="20">
+        <v>5544</v>
+      </c>
+      <c r="H129" s="19">
+        <v>10</v>
+      </c>
+      <c r="I129" s="19">
+        <v>10</v>
+      </c>
+      <c r="J129" s="19">
+        <v>10</v>
+      </c>
+      <c r="K129" s="19">
+        <v>10</v>
+      </c>
+      <c r="L129" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="5:12">
+      <c r="E130" s="19">
+        <v>9</v>
+      </c>
+      <c r="F130" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G130" s="20">
+        <v>9530.4</v>
+      </c>
+      <c r="H130" s="19">
+        <v>11</v>
+      </c>
+      <c r="I130" s="19">
+        <v>11</v>
+      </c>
+      <c r="J130" s="19">
+        <v>11</v>
+      </c>
+      <c r="K130" s="19">
+        <v>11</v>
+      </c>
+      <c r="L130" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="5:12">
+      <c r="E131" s="19">
+        <v>10</v>
+      </c>
+      <c r="F131" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="G131" s="20">
+        <v>16581.84</v>
+      </c>
+      <c r="H131" s="19">
+        <v>12</v>
+      </c>
+      <c r="I131" s="19">
+        <v>12</v>
+      </c>
+      <c r="J131" s="19">
+        <v>12</v>
+      </c>
+      <c r="K131" s="19">
+        <v>12</v>
+      </c>
+      <c r="L131" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="5:12">
+      <c r="E132" s="19">
+        <v>11</v>
+      </c>
+      <c r="F132" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="G132" s="20">
+        <v>28723.464</v>
+      </c>
+      <c r="H132" s="19">
+        <v>13</v>
+      </c>
+      <c r="I132" s="19">
+        <v>13</v>
+      </c>
+      <c r="J132" s="19">
+        <v>13</v>
+      </c>
+      <c r="K132" s="19">
+        <v>13</v>
+      </c>
+      <c r="L132" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="5:12">
+      <c r="E133" s="19">
+        <v>12</v>
+      </c>
+      <c r="F133" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="G133" s="20">
+        <v>49835.8344</v>
+      </c>
+      <c r="H133" s="19">
+        <v>14</v>
+      </c>
+      <c r="I133" s="19">
+        <v>14</v>
+      </c>
+      <c r="J133" s="19">
+        <v>14</v>
+      </c>
+      <c r="K133" s="19">
+        <v>14</v>
+      </c>
+      <c r="L133" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="5:12">
+      <c r="E134" s="19">
+        <v>13</v>
+      </c>
+      <c r="F134" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="G134" s="20">
+        <v>94271.15808</v>
+      </c>
+      <c r="H134" s="19">
+        <v>15</v>
+      </c>
+      <c r="I134" s="19">
+        <v>15</v>
+      </c>
+      <c r="J134" s="19">
+        <v>15</v>
+      </c>
+      <c r="K134" s="19">
+        <v>15</v>
+      </c>
+      <c r="L134" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="5:12">
+      <c r="E135" s="19">
+        <v>14</v>
+      </c>
+      <c r="F135" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G135" s="20">
+        <v>187339.090224</v>
+      </c>
+      <c r="H135" s="19">
+        <v>16</v>
+      </c>
+      <c r="I135" s="19">
+        <v>16</v>
+      </c>
+      <c r="J135" s="19">
+        <v>16</v>
+      </c>
+      <c r="K135" s="19">
+        <v>16</v>
+      </c>
+      <c r="L135" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="5:12">
+      <c r="E136" s="19">
+        <v>15</v>
+      </c>
+      <c r="F136" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="G136" s="20">
+        <v>394254.3476256</v>
+      </c>
+      <c r="H136" s="19">
+        <v>17</v>
+      </c>
+      <c r="I136" s="19">
+        <v>17</v>
+      </c>
+      <c r="J136" s="19">
+        <v>17</v>
+      </c>
+      <c r="K136" s="19">
+        <v>17</v>
+      </c>
+      <c r="L136" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="5:12">
+      <c r="E137" s="19">
+        <v>16</v>
+      </c>
+      <c r="F137" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="G137" s="20">
+        <v>872390.1567744</v>
+      </c>
+      <c r="H137" s="19">
+        <v>18</v>
+      </c>
+      <c r="I137" s="19">
+        <v>18</v>
+      </c>
+      <c r="J137" s="19">
+        <v>18</v>
+      </c>
+      <c r="K137" s="19">
+        <v>18</v>
+      </c>
+      <c r="L137" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="5:12">
+      <c r="E138" s="19">
+        <v>17</v>
+      </c>
+      <c r="F138" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="G138" s="20">
+        <v>2026631.20704</v>
+      </c>
+      <c r="H138" s="19">
+        <v>19</v>
+      </c>
+      <c r="I138" s="19">
+        <v>19</v>
+      </c>
+      <c r="J138" s="19">
+        <v>19</v>
+      </c>
+      <c r="K138" s="19">
+        <v>19</v>
+      </c>
+      <c r="L138" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="5:12">
+      <c r="E139" s="19">
+        <v>18</v>
+      </c>
+      <c r="F139" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="G139" s="20">
+        <v>4928336.31848448</v>
+      </c>
+      <c r="H139" s="19">
+        <v>20</v>
+      </c>
+      <c r="I139" s="19">
+        <v>20</v>
+      </c>
+      <c r="J139" s="19">
+        <v>20</v>
+      </c>
+      <c r="K139" s="19">
+        <v>20</v>
+      </c>
+      <c r="L139" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="3:4">
+      <c r="C141">
+        <v>6</v>
+      </c>
+      <c r="D141" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="143" spans="4:5">
+      <c r="D143">
+        <v>6.1</v>
+      </c>
+      <c r="E143" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="145" spans="5:7">
+      <c r="E145" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="146" spans="5:7">
+      <c r="E146" s="6">
+        <v>1</v>
+      </c>
+      <c r="F146" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G146" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="G123" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="H123" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="I123" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="J123" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="K123" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="L123" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="124" spans="4:12">
-      <c r="D124" t="s">
-        <v>86</v>
-      </c>
-      <c r="E124" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="F124" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="G124" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="H124" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="I124" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="J124" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="K124" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="L124" s="12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="125" spans="5:12">
-      <c r="E125" s="20">
+    </row>
+    <row r="147" spans="5:7">
+      <c r="E147" s="6">
+        <v>2</v>
+      </c>
+      <c r="F147" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G147" s="22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="148" spans="5:7">
+      <c r="E148" s="6">
+        <v>3</v>
+      </c>
+      <c r="F148" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G148" s="22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="151" spans="4:5">
+      <c r="D151">
+        <v>6.2</v>
+      </c>
+      <c r="E151" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="153" spans="5:7">
+      <c r="E153" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="154" ht="40.5" spans="5:7">
+      <c r="E154" s="6">
         <v>1</v>
       </c>
-      <c r="F125" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="G125" s="21">
-        <v>0</v>
-      </c>
-      <c r="H125" s="20">
+      <c r="F154" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G154" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="157" spans="4:5">
+      <c r="D157">
+        <v>6.3</v>
+      </c>
+      <c r="E157" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="159" spans="5:7">
+      <c r="E159" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="160" ht="81" spans="5:7">
+      <c r="E160" s="6">
+        <v>1</v>
+      </c>
+      <c r="F160" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G160" s="16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="163" spans="4:5">
+      <c r="D163">
+        <v>6.4</v>
+      </c>
+      <c r="E163" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="165" spans="5:7">
+      <c r="E165" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="166" ht="81" spans="5:7">
+      <c r="E166" s="6">
+        <v>1</v>
+      </c>
+      <c r="F166" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G166" s="16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="167" spans="5:7">
+      <c r="E167" s="6">
+        <v>2</v>
+      </c>
+      <c r="F167" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G167" s="22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="168" spans="5:7">
+      <c r="E168" s="6">
         <v>3</v>
       </c>
-      <c r="I125" s="20">
+      <c r="F168" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G168" s="22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="170" spans="3:4">
+      <c r="C170">
+        <v>7</v>
+      </c>
+      <c r="D170" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="172" spans="5:9">
+      <c r="E172" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H172" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I172" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="173" spans="5:9">
+      <c r="E173" s="6">
+        <v>1</v>
+      </c>
+      <c r="F173" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G173" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H173" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="I173" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="174" spans="5:9">
+      <c r="E174" s="6">
+        <v>2</v>
+      </c>
+      <c r="F174" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G174" s="6"/>
+      <c r="H174" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="I174" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="175" spans="5:9">
+      <c r="E175" s="6">
         <v>3</v>
       </c>
-      <c r="J125" s="20">
-        <v>3</v>
-      </c>
-      <c r="K125" s="20">
-        <v>3</v>
-      </c>
-      <c r="L125" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="5:12">
-      <c r="E126" s="20">
-        <v>2</v>
-      </c>
-      <c r="F126" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="G126" s="21">
-        <v>240</v>
-      </c>
-      <c r="H126" s="20">
-        <v>4</v>
-      </c>
-      <c r="I126" s="20">
-        <v>4</v>
-      </c>
-      <c r="J126" s="20">
-        <v>4</v>
-      </c>
-      <c r="K126" s="20">
-        <v>4</v>
-      </c>
-      <c r="L126" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="5:12">
-      <c r="E127" s="20">
-        <v>3</v>
-      </c>
-      <c r="F127" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="G127" s="21">
-        <v>480</v>
-      </c>
-      <c r="H127" s="20">
-        <v>5</v>
-      </c>
-      <c r="I127" s="20">
-        <v>5</v>
-      </c>
-      <c r="J127" s="20">
-        <v>5</v>
-      </c>
-      <c r="K127" s="20">
-        <v>5</v>
-      </c>
-      <c r="L127" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="5:12">
-      <c r="E128" s="20">
-        <v>4</v>
-      </c>
-      <c r="F128" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="G128" s="21">
-        <v>720</v>
-      </c>
-      <c r="H128" s="20">
-        <v>6</v>
-      </c>
-      <c r="I128" s="20">
-        <v>6</v>
-      </c>
-      <c r="J128" s="20">
-        <v>6</v>
-      </c>
-      <c r="K128" s="20">
-        <v>6</v>
-      </c>
-      <c r="L128" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="5:12">
-      <c r="E129" s="20">
-        <v>5</v>
-      </c>
-      <c r="F129" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="G129" s="21">
-        <v>1200</v>
-      </c>
-      <c r="H129" s="20">
-        <v>7</v>
-      </c>
-      <c r="I129" s="20">
-        <v>7</v>
-      </c>
-      <c r="J129" s="20">
-        <v>7</v>
-      </c>
-      <c r="K129" s="20">
-        <v>7</v>
-      </c>
-      <c r="L129" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="5:12">
-      <c r="E130" s="20">
-        <v>6</v>
-      </c>
-      <c r="F130" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="G130" s="21">
-        <v>1920</v>
-      </c>
-      <c r="H130" s="20">
-        <v>8</v>
-      </c>
-      <c r="I130" s="20">
-        <v>8</v>
-      </c>
-      <c r="J130" s="20">
-        <v>8</v>
-      </c>
-      <c r="K130" s="20">
-        <v>8</v>
-      </c>
-      <c r="L130" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="5:12">
-      <c r="E131" s="20">
-        <v>7</v>
-      </c>
-      <c r="F131" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="G131" s="21">
-        <v>3120</v>
-      </c>
-      <c r="H131" s="20">
-        <v>9</v>
-      </c>
-      <c r="I131" s="20">
-        <v>9</v>
-      </c>
-      <c r="J131" s="20">
-        <v>9</v>
-      </c>
-      <c r="K131" s="20">
-        <v>9</v>
-      </c>
-      <c r="L131" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="5:12">
-      <c r="E132" s="20">
-        <v>8</v>
-      </c>
-      <c r="F132" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="G132" s="21">
-        <v>5544</v>
-      </c>
-      <c r="H132" s="20">
-        <v>10</v>
-      </c>
-      <c r="I132" s="20">
-        <v>10</v>
-      </c>
-      <c r="J132" s="20">
-        <v>10</v>
-      </c>
-      <c r="K132" s="20">
-        <v>10</v>
-      </c>
-      <c r="L132" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="5:12">
-      <c r="E133" s="20">
-        <v>9</v>
-      </c>
-      <c r="F133" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="G133" s="21">
-        <v>9530.4</v>
-      </c>
-      <c r="H133" s="20">
-        <v>11</v>
-      </c>
-      <c r="I133" s="20">
-        <v>11</v>
-      </c>
-      <c r="J133" s="20">
-        <v>11</v>
-      </c>
-      <c r="K133" s="20">
-        <v>11</v>
-      </c>
-      <c r="L133" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="5:12">
-      <c r="E134" s="20">
-        <v>10</v>
-      </c>
-      <c r="F134" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="G134" s="21">
-        <v>16581.84</v>
-      </c>
-      <c r="H134" s="20">
-        <v>12</v>
-      </c>
-      <c r="I134" s="20">
-        <v>12</v>
-      </c>
-      <c r="J134" s="20">
-        <v>12</v>
-      </c>
-      <c r="K134" s="20">
-        <v>12</v>
-      </c>
-      <c r="L134" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="5:12">
-      <c r="E135" s="20">
-        <v>11</v>
-      </c>
-      <c r="F135" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="G135" s="21">
-        <v>28723.464</v>
-      </c>
-      <c r="H135" s="20">
-        <v>13</v>
-      </c>
-      <c r="I135" s="20">
-        <v>13</v>
-      </c>
-      <c r="J135" s="20">
-        <v>13</v>
-      </c>
-      <c r="K135" s="20">
-        <v>13</v>
-      </c>
-      <c r="L135" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="5:12">
-      <c r="E136" s="20">
-        <v>12</v>
-      </c>
-      <c r="F136" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="G136" s="21">
-        <v>49835.8344</v>
-      </c>
-      <c r="H136" s="20">
-        <v>14</v>
-      </c>
-      <c r="I136" s="20">
-        <v>14</v>
-      </c>
-      <c r="J136" s="20">
-        <v>14</v>
-      </c>
-      <c r="K136" s="20">
-        <v>14</v>
-      </c>
-      <c r="L136" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="5:12">
-      <c r="E137" s="20">
-        <v>13</v>
-      </c>
-      <c r="F137" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="G137" s="21">
-        <v>94271.15808</v>
-      </c>
-      <c r="H137" s="20">
-        <v>15</v>
-      </c>
-      <c r="I137" s="20">
-        <v>15</v>
-      </c>
-      <c r="J137" s="20">
-        <v>15</v>
-      </c>
-      <c r="K137" s="20">
-        <v>15</v>
-      </c>
-      <c r="L137" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="5:12">
-      <c r="E138" s="20">
-        <v>14</v>
-      </c>
-      <c r="F138" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="G138" s="21">
-        <v>187339.090224</v>
-      </c>
-      <c r="H138" s="20">
-        <v>16</v>
-      </c>
-      <c r="I138" s="20">
-        <v>16</v>
-      </c>
-      <c r="J138" s="20">
-        <v>16</v>
-      </c>
-      <c r="K138" s="20">
-        <v>16</v>
-      </c>
-      <c r="L138" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="5:12">
-      <c r="E139" s="20">
-        <v>15</v>
-      </c>
-      <c r="F139" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="G139" s="21">
-        <v>394254.3476256</v>
-      </c>
-      <c r="H139" s="20">
-        <v>17</v>
-      </c>
-      <c r="I139" s="20">
-        <v>17</v>
-      </c>
-      <c r="J139" s="20">
-        <v>17</v>
-      </c>
-      <c r="K139" s="20">
-        <v>17</v>
-      </c>
-      <c r="L139" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="5:12">
-      <c r="E140" s="20">
-        <v>16</v>
-      </c>
-      <c r="F140" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="G140" s="21">
-        <v>872390.1567744</v>
-      </c>
-      <c r="H140" s="20">
-        <v>18</v>
-      </c>
-      <c r="I140" s="20">
-        <v>18</v>
-      </c>
-      <c r="J140" s="20">
-        <v>18</v>
-      </c>
-      <c r="K140" s="20">
-        <v>18</v>
-      </c>
-      <c r="L140" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="5:12">
-      <c r="E141" s="20">
-        <v>17</v>
-      </c>
-      <c r="F141" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="G141" s="21">
-        <v>2026631.20704</v>
-      </c>
-      <c r="H141" s="20">
-        <v>19</v>
-      </c>
-      <c r="I141" s="20">
-        <v>19</v>
-      </c>
-      <c r="J141" s="20">
-        <v>19</v>
-      </c>
-      <c r="K141" s="20">
-        <v>19</v>
-      </c>
-      <c r="L141" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="5:12">
-      <c r="E142" s="20">
-        <v>18</v>
-      </c>
-      <c r="F142" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="G142" s="21">
-        <v>4928336.31848448</v>
-      </c>
-      <c r="H142" s="20">
-        <v>20</v>
-      </c>
-      <c r="I142" s="20">
-        <v>20</v>
-      </c>
-      <c r="J142" s="20">
-        <v>20</v>
-      </c>
-      <c r="K142" s="20">
-        <v>20</v>
-      </c>
-      <c r="L142" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="3:4">
-      <c r="C144">
-        <v>6</v>
-      </c>
-      <c r="D144" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="146" spans="4:5">
-      <c r="D146">
-        <v>6.1</v>
-      </c>
-      <c r="E146" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="148" spans="5:7">
-      <c r="E148" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F148" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G148" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="149" spans="5:7">
-      <c r="E149" s="2">
-        <v>1</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G149" s="22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="150" spans="5:7">
-      <c r="E150" s="2">
-        <v>2</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G150" s="23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="151" spans="5:7">
-      <c r="E151" s="2">
-        <v>3</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G151" s="23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="154" spans="4:5">
-      <c r="D154">
-        <v>6.2</v>
-      </c>
-      <c r="E154" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="156" spans="5:7">
-      <c r="E156" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F156" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G156" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="157" ht="40.5" spans="5:7">
-      <c r="E157" s="2">
-        <v>1</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G157" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="160" spans="4:5">
-      <c r="D160">
-        <v>6.3</v>
-      </c>
-      <c r="E160" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="162" spans="5:7">
-      <c r="E162" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F162" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G162" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="163" ht="81" spans="5:7">
-      <c r="E163" s="2">
-        <v>1</v>
-      </c>
-      <c r="F163" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G163" s="17" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="166" spans="4:5">
-      <c r="D166">
-        <v>6.4</v>
-      </c>
-      <c r="E166" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="168" spans="5:7">
-      <c r="E168" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F168" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G168" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="169" ht="81" spans="5:7">
-      <c r="E169" s="2">
-        <v>1</v>
-      </c>
-      <c r="F169" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G169" s="17" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="170" spans="5:7">
-      <c r="E170" s="2">
-        <v>2</v>
-      </c>
-      <c r="F170" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G170" s="23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="171" spans="5:7">
-      <c r="E171" s="2">
-        <v>3</v>
-      </c>
-      <c r="F171" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G171" s="23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="173" spans="3:4">
-      <c r="C173">
-        <v>7</v>
-      </c>
-      <c r="D173" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="175" spans="5:9">
-      <c r="E175" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F175" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G175" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H175" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="I175" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="176" spans="5:9">
-      <c r="E176" s="2">
-        <v>1</v>
-      </c>
-      <c r="F176" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G176" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="H176" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="I176" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="177" spans="5:9">
-      <c r="E177" s="2">
-        <v>2</v>
-      </c>
-      <c r="F177" s="2" t="s">
+      <c r="F175" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G175" s="6"/>
+      <c r="H175" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="G177" s="2"/>
-      <c r="H177" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="I177" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="178" spans="5:9">
-      <c r="E178" s="2">
-        <v>3</v>
-      </c>
-      <c r="F178" s="2" t="s">
+      <c r="I175" s="6" t="s">
         <v>130</v>
-      </c>
-      <c r="G178" s="2"/>
-      <c r="H178" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="I178" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="E112:E113"/>
-    <mergeCell ref="F112:F113"/>
-    <mergeCell ref="G112:G113"/>
-    <mergeCell ref="I112:I113"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="I109:I110"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G149" location="Sheet1!F24" display="图4"/>
-    <hyperlink ref="G150" location="Sheet1!F69" display="图4.1.A"/>
-    <hyperlink ref="G151" location="Sheet1!L69" display="图4.1.C"/>
-    <hyperlink ref="G163" location="Sheet1!L69" display="图4.1.C晋升时先显示当前主角全身形象，然后一道光柱从下往上冲起，替换成晋升后主角全身形象，之后在右侧显示，晋升后身份名称和身份权限，整个过程3s左右。"/>
-    <hyperlink ref="G67" location="Sheet1!F69" display="单击，打开主角晋升界面"/>
-    <hyperlink ref="H112" location="Sheet1!H69" display="威望值不足时，弹出提示信息（&#10;图4.1.B）显示2秒后淡出"/>
-    <hyperlink ref="H113" location="Sheet1!L69" display="晋升成功，展示（图4.1.C）"/>
-    <hyperlink ref="G169" location="Sheet1!F24" display="卧室(图4)根据主角身份不同会有所变化，前期为简陋的房间，逐步增加梳妆台，屏风等场景物件，特定时间点会有更换房间的表现（需和编剧最终确认量化卧室数量）"/>
-    <hyperlink ref="G170" location="Sheet1!F69" display="图4.1.A"/>
-    <hyperlink ref="G171" location="Sheet1!L69" display="图4.1.C"/>
+    <hyperlink ref="G146" location="Sheet1!F24" display="图4"/>
+    <hyperlink ref="G147" location="Sheet1!F69" display="图4.1.A"/>
+    <hyperlink ref="G148" location="Sheet1!L69" display="图4.1.C"/>
+    <hyperlink ref="G160" location="Sheet1!L69" display="图4.1.C晋升时先显示当前主角全身形象，然后一道光柱从下往上冲起，替换成晋升后主角全身形象，之后在右侧显示，晋升后身份名称和身份权限，整个过程3s左右。"/>
+    <hyperlink ref="G64" location="Sheet1!F69" display="单击，打开主角晋升界面"/>
+    <hyperlink ref="H109" location="Sheet1!H69" display="威望值不足时，弹出提示信息（&#10;图4.1.B）显示2秒后淡出"/>
+    <hyperlink ref="H110" location="Sheet1!L69" display="晋升成功，展示（图4.1.C）"/>
+    <hyperlink ref="G166" location="Sheet1!F24" display="卧室(图4)根据主角身份不同会有所变化，前期为简陋的房间，逐步增加梳妆台，屏风等场景物件，特定时间点会有更换房间的表现（需和编剧最终确认量化卧室数量）"/>
+    <hyperlink ref="G167" location="Sheet1!F69" display="图4.1.A"/>
+    <hyperlink ref="G168" location="Sheet1!L69" display="图4.1.C"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/7月制作内容/系统文档/【蔡文吉】我的房间文档.xlsx
+++ b/7月制作内容/系统文档/【蔡文吉】我的房间文档.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135">
   <si>
     <t>修订记录</t>
   </si>
@@ -153,6 +153,12 @@
   </si>
   <si>
     <t>修改备注</t>
+  </si>
+  <si>
+    <t>功能入口</t>
+  </si>
+  <si>
+    <t>单击，打开我的房间界面</t>
   </si>
   <si>
     <t>返回按钮</t>
@@ -422,10 +428,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0;[Red]0"/>
   </numFmts>
   <fonts count="20">
@@ -454,45 +460,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -500,29 +468,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -536,10 +482,47 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -558,15 +541,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -576,6 +550,38 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -596,7 +602,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,73 +680,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -692,7 +704,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -704,13 +728,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -722,37 +746,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -770,7 +770,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -848,7 +854,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -870,48 +876,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -933,11 +902,48 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -949,10 +955,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -961,16 +967,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -982,117 +988,120 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
@@ -1128,10 +1137,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1239,15 +1260,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:colOff>212725</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1035685</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>113030</xdr:rowOff>
+      <xdr:colOff>1197610</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>170180</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1264,7 +1285,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12461875" y="13567410"/>
+          <a:off x="12623800" y="13110210"/>
           <a:ext cx="3337560" cy="5595620"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1281,15 +1302,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>89535</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>601345</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>84455</xdr:rowOff>
+      <xdr:colOff>763270</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>151130</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1306,7 +1327,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2809875" y="13586460"/>
+          <a:off x="2971800" y="13138785"/>
           <a:ext cx="3573145" cy="5719445"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1323,15 +1344,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>2048510</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>142240</xdr:rowOff>
+      <xdr:colOff>1953260</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>75565</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>123190</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>147955</xdr:rowOff>
+      <xdr:colOff>27940</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>81280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1348,7 +1369,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7830185" y="13534390"/>
+          <a:off x="7734935" y="13124815"/>
           <a:ext cx="3484880" cy="5663565"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1365,15 +1386,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1981200</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>2143125</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1382,7 +1403,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5505450" y="18249900"/>
+          <a:off x="5667375" y="17802225"/>
           <a:ext cx="428625" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -1522,15 +1543,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1539,7 +1560,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3571875" y="18316575"/>
+          <a:off x="3733800" y="17868900"/>
           <a:ext cx="428625" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -1679,15 +1700,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1841500</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>136525</xdr:rowOff>
+      <xdr:colOff>2003425</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>22225</xdr:rowOff>
+      <xdr:colOff>174625</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1696,7 +1717,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5365750" y="13871575"/>
+          <a:off x="5527675" y="13423900"/>
           <a:ext cx="428625" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -1836,15 +1857,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>165735</xdr:rowOff>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>146685</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>517525</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>51435</xdr:rowOff>
+      <xdr:colOff>574675</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>32385</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1853,7 +1874,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14852650" y="17844135"/>
+          <a:off x="14909800" y="17482185"/>
           <a:ext cx="428625" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -1992,16 +2013,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1066800</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>61595</xdr:rowOff>
+      <xdr:rowOff>33020</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2018,7 +2039,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2857500" y="4886325"/>
+          <a:off x="7924800" y="4857750"/>
           <a:ext cx="3114675" cy="5481320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2034,16 +2055,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1495425</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1924050</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2052,7 +2073,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5019675" y="5219700"/>
+          <a:off x="10163175" y="5172075"/>
           <a:ext cx="428625" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -2181,7 +2202,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>1</a:t>
+            <a:t>2</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
@@ -2191,16 +2212,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1323975</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1752600</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2209,7 +2230,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4848225" y="6867525"/>
+          <a:off x="9991725" y="6819900"/>
           <a:ext cx="428625" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -2338,7 +2359,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>2</a:t>
+            <a:t>3</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
@@ -2348,16 +2369,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1619250</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2047875</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2366,7 +2387,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5143500" y="9277350"/>
+          <a:off x="10287000" y="9229725"/>
           <a:ext cx="428625" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -2495,7 +2516,206 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>3</a:t>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>504190</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>23495</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3200400" y="4857750"/>
+          <a:ext cx="3085465" cy="5471795"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1638300</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2066925</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="椭圆形标注 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5162550" y="5810250"/>
+          <a:ext cx="428625" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -54148"/>
+            <a:gd name="adj2" fmla="val 103015"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
@@ -2778,111 +2998,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12">
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="K1" s="23" t="s">
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="K1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="23"/>
+      <c r="L1" s="28"/>
     </row>
     <row r="2" spans="2:12">
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="K3" s="30" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="29">
         <v>43647</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="26" t="s">
+      <c r="K4" s="31" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="11:11">
-      <c r="K5" s="26" t="s">
+      <c r="K5" s="31" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="12:12">
-      <c r="L6" s="26" t="s">
+      <c r="L6" s="31" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="11:11">
-      <c r="K7" s="26" t="s">
+      <c r="K7" s="31" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="12:12">
-      <c r="L8" s="26" t="s">
+      <c r="L8" s="31" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="11:11">
-      <c r="K9" s="26" t="s">
+      <c r="K9" s="31" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="11:11">
-      <c r="K10" s="26" t="s">
+      <c r="K10" s="31" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="12:12">
-      <c r="L11" s="26" t="s">
+      <c r="L11" s="31" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="12:12">
-      <c r="L12" s="26" t="s">
+      <c r="L12" s="31" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="12:12">
-      <c r="L13" s="26" t="s">
+      <c r="L13" s="31" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="12:12">
-      <c r="L14" s="26" t="s">
+      <c r="L14" s="31" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="11:11">
-      <c r="K15" s="26" t="s">
+      <c r="K15" s="31" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2914,10 +3134,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="C2:M175"/>
+  <dimension ref="C2:M178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="C28" workbookViewId="0">
+      <selection activeCell="G77" sqref="G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2981,55 +3201,55 @@
       </c>
     </row>
     <row r="16" spans="8:11">
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
     </row>
     <row r="17" spans="5:11">
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
     </row>
     <row r="18" spans="5:11">
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="H18" s="9"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
     </row>
     <row r="19" ht="42" customHeight="1" spans="5:11">
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
     </row>
     <row r="21" spans="4:5">
       <c r="D21">
@@ -3058,1047 +3278,1063 @@
       </c>
     </row>
     <row r="61" spans="5:13">
-      <c r="E61" s="11" t="s">
+      <c r="E61" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F61" s="11" t="s">
+      <c r="F61" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G61" s="4" t="s">
+      <c r="G61" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H61" s="4" t="s">
+      <c r="H61" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="I61" s="4" t="s">
+      <c r="I61" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="K61" s="13"/>
-      <c r="L61" s="13"/>
-      <c r="M61" s="1"/>
-    </row>
-    <row r="62" spans="5:13">
-      <c r="E62" s="6">
+      <c r="K61" s="15"/>
+      <c r="L61" s="15"/>
+      <c r="M61" s="2"/>
+    </row>
+    <row r="62" s="1" customFormat="1" spans="5:13">
+      <c r="E62" s="7">
         <v>1</v>
       </c>
-      <c r="F62" s="6" t="s">
+      <c r="F62" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="G62" s="10" t="s">
+      <c r="G62" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="H62" s="10"/>
-      <c r="I62" s="10"/>
-      <c r="K62" s="13"/>
-      <c r="L62" s="13"/>
-      <c r="M62" s="1"/>
-    </row>
-    <row r="63" ht="27" spans="5:13">
-      <c r="E63" s="6">
+      <c r="H62" s="14"/>
+      <c r="I62" s="14"/>
+      <c r="K62" s="16"/>
+      <c r="L62" s="16"/>
+      <c r="M62" s="17"/>
+    </row>
+    <row r="63" spans="5:13">
+      <c r="E63" s="7">
         <v>2</v>
       </c>
-      <c r="F63" s="6" t="s">
+      <c r="F63" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G63" s="8" t="s">
+      <c r="G63" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="H63" s="10" t="s">
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="K63" s="15"/>
+      <c r="L63" s="15"/>
+      <c r="M63" s="2"/>
+    </row>
+    <row r="64" ht="27" spans="5:13">
+      <c r="E64" s="7">
+        <v>3</v>
+      </c>
+      <c r="F64" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="I63" s="10"/>
-      <c r="K63" s="13"/>
-      <c r="L63" s="13"/>
-      <c r="M63" s="1"/>
-    </row>
-    <row r="64" ht="27" spans="5:13">
-      <c r="E64" s="6">
+      <c r="G64" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H64" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I64" s="11"/>
+      <c r="K64" s="15"/>
+      <c r="L64" s="15"/>
+      <c r="M64" s="2"/>
+    </row>
+    <row r="65" ht="27" spans="5:13">
+      <c r="E65" s="7">
+        <v>4</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G65" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="H65" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I65" s="11"/>
+      <c r="K65" s="6"/>
+      <c r="L65" s="6"/>
+      <c r="M65" s="2"/>
+    </row>
+    <row r="66" spans="11:13">
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
+    </row>
+    <row r="67" spans="11:13">
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+    </row>
+    <row r="71" spans="4:5">
+      <c r="D71">
+        <v>4.1</v>
+      </c>
+      <c r="E71" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="72" spans="6:12">
+      <c r="F72" t="s">
+        <v>57</v>
+      </c>
+      <c r="H72" t="s">
+        <v>58</v>
+      </c>
+      <c r="L72" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="110" spans="5:13">
+      <c r="E110" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F110" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G110" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H110" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I110" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K110" s="15"/>
+      <c r="L110" s="15"/>
+      <c r="M110" s="2"/>
+    </row>
+    <row r="111" spans="5:13">
+      <c r="E111" s="7">
+        <v>1</v>
+      </c>
+      <c r="F111" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G111" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H111" s="11"/>
+      <c r="I111" s="11"/>
+      <c r="K111" s="15"/>
+      <c r="L111" s="15"/>
+      <c r="M111" s="2"/>
+    </row>
+    <row r="112" ht="27" spans="5:13">
+      <c r="E112" s="19">
+        <v>2</v>
+      </c>
+      <c r="F112" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="G112" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="H112" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="I112" s="19"/>
+      <c r="K112" s="6"/>
+      <c r="L112" s="6"/>
+      <c r="M112" s="2"/>
+    </row>
+    <row r="113" spans="5:13">
+      <c r="E113" s="22"/>
+      <c r="F113" s="20"/>
+      <c r="G113" s="20"/>
+      <c r="H113" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="I113" s="22"/>
+      <c r="K113" s="6"/>
+      <c r="L113" s="6"/>
+      <c r="M113" s="2"/>
+    </row>
+    <row r="114" spans="5:13">
+      <c r="E114" s="7">
         <v>3</v>
       </c>
-      <c r="F64" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G64" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="H64" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="I64" s="10"/>
-      <c r="K64" s="5"/>
-      <c r="L64" s="5"/>
-      <c r="M64" s="1"/>
-    </row>
-    <row r="65" spans="11:13">
-      <c r="K65" s="1"/>
-      <c r="L65" s="1"/>
-      <c r="M65" s="1"/>
-    </row>
-    <row r="66" spans="11:13">
-      <c r="K66" s="1"/>
-      <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
-    </row>
-    <row r="70" spans="4:5">
-      <c r="D70">
-        <v>4.1</v>
-      </c>
-      <c r="E70" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="71" spans="6:12">
-      <c r="F71" t="s">
-        <v>55</v>
-      </c>
-      <c r="H71" t="s">
+      <c r="F114" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G114" s="23"/>
+      <c r="H114" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="I114" s="11"/>
+      <c r="K114" s="15"/>
+      <c r="L114" s="15"/>
+      <c r="M114" s="2"/>
+    </row>
+    <row r="115" spans="5:13">
+      <c r="E115" s="7">
+        <v>4</v>
+      </c>
+      <c r="F115" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G115" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H115" s="11"/>
+      <c r="I115" s="11"/>
+      <c r="K115" s="15"/>
+      <c r="L115" s="15"/>
+      <c r="M115" s="2"/>
+    </row>
+    <row r="116" spans="11:13">
+      <c r="K116" s="2"/>
+      <c r="L116" s="2"/>
+      <c r="M116" s="2"/>
+    </row>
+    <row r="119" spans="3:4">
+      <c r="C119">
+        <v>5</v>
+      </c>
+      <c r="D119" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="120" spans="4:5">
+      <c r="D120" t="s">
+        <v>70</v>
+      </c>
+      <c r="E120" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="121" spans="12:12">
+      <c r="L121" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="122" spans="4:12">
+      <c r="D122" t="s">
+        <v>73</v>
+      </c>
+      <c r="E122" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F122" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G122" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H122" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="I122" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="J122" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="K122" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="L122" s="12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="123" spans="4:12">
+      <c r="D123" t="s">
+        <v>82</v>
+      </c>
+      <c r="E123" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F123" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G123" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="H123" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="I123" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="J123" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="K123" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="L123" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="124" spans="4:12">
+      <c r="D124" t="s">
+        <v>90</v>
+      </c>
+      <c r="E124" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F124" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="G124" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="H124" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="I124" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="J124" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="K124" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L124" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="125" spans="5:12">
+      <c r="E125" s="24">
+        <v>1</v>
+      </c>
+      <c r="F125" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="G125" s="25">
+        <v>0</v>
+      </c>
+      <c r="H125" s="24">
+        <v>3</v>
+      </c>
+      <c r="I125" s="24">
+        <v>3</v>
+      </c>
+      <c r="J125" s="24">
+        <v>3</v>
+      </c>
+      <c r="K125" s="24">
+        <v>3</v>
+      </c>
+      <c r="L125" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="5:12">
+      <c r="E126" s="24">
+        <v>2</v>
+      </c>
+      <c r="F126" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="G126" s="25">
+        <v>240</v>
+      </c>
+      <c r="H126" s="24">
+        <v>4</v>
+      </c>
+      <c r="I126" s="24">
+        <v>4</v>
+      </c>
+      <c r="J126" s="24">
+        <v>4</v>
+      </c>
+      <c r="K126" s="24">
+        <v>4</v>
+      </c>
+      <c r="L126" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="5:12">
+      <c r="E127" s="24">
+        <v>3</v>
+      </c>
+      <c r="F127" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="G127" s="25">
+        <v>480</v>
+      </c>
+      <c r="H127" s="24">
+        <v>5</v>
+      </c>
+      <c r="I127" s="24">
+        <v>5</v>
+      </c>
+      <c r="J127" s="24">
+        <v>5</v>
+      </c>
+      <c r="K127" s="24">
+        <v>5</v>
+      </c>
+      <c r="L127" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="5:12">
+      <c r="E128" s="24">
+        <v>4</v>
+      </c>
+      <c r="F128" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="G128" s="25">
+        <v>720</v>
+      </c>
+      <c r="H128" s="24">
+        <v>6</v>
+      </c>
+      <c r="I128" s="24">
+        <v>6</v>
+      </c>
+      <c r="J128" s="24">
+        <v>6</v>
+      </c>
+      <c r="K128" s="24">
+        <v>6</v>
+      </c>
+      <c r="L128" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="5:12">
+      <c r="E129" s="24">
+        <v>5</v>
+      </c>
+      <c r="F129" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="G129" s="25">
+        <v>1200</v>
+      </c>
+      <c r="H129" s="24">
+        <v>7</v>
+      </c>
+      <c r="I129" s="24">
+        <v>7</v>
+      </c>
+      <c r="J129" s="24">
+        <v>7</v>
+      </c>
+      <c r="K129" s="24">
+        <v>7</v>
+      </c>
+      <c r="L129" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="5:12">
+      <c r="E130" s="24">
+        <v>6</v>
+      </c>
+      <c r="F130" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="G130" s="25">
+        <v>1920</v>
+      </c>
+      <c r="H130" s="24">
+        <v>8</v>
+      </c>
+      <c r="I130" s="24">
+        <v>8</v>
+      </c>
+      <c r="J130" s="24">
+        <v>8</v>
+      </c>
+      <c r="K130" s="24">
+        <v>8</v>
+      </c>
+      <c r="L130" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="5:12">
+      <c r="E131" s="24">
+        <v>7</v>
+      </c>
+      <c r="F131" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="G131" s="25">
+        <v>3120</v>
+      </c>
+      <c r="H131" s="24">
+        <v>9</v>
+      </c>
+      <c r="I131" s="24">
+        <v>9</v>
+      </c>
+      <c r="J131" s="24">
+        <v>9</v>
+      </c>
+      <c r="K131" s="24">
+        <v>9</v>
+      </c>
+      <c r="L131" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="5:12">
+      <c r="E132" s="24">
+        <v>8</v>
+      </c>
+      <c r="F132" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="G132" s="25">
+        <v>5544</v>
+      </c>
+      <c r="H132" s="24">
+        <v>10</v>
+      </c>
+      <c r="I132" s="24">
+        <v>10</v>
+      </c>
+      <c r="J132" s="24">
+        <v>10</v>
+      </c>
+      <c r="K132" s="24">
+        <v>10</v>
+      </c>
+      <c r="L132" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="5:12">
+      <c r="E133" s="24">
+        <v>9</v>
+      </c>
+      <c r="F133" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="G133" s="25">
+        <v>9530.4</v>
+      </c>
+      <c r="H133" s="24">
+        <v>11</v>
+      </c>
+      <c r="I133" s="24">
+        <v>11</v>
+      </c>
+      <c r="J133" s="24">
+        <v>11</v>
+      </c>
+      <c r="K133" s="24">
+        <v>11</v>
+      </c>
+      <c r="L133" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="5:12">
+      <c r="E134" s="24">
+        <v>10</v>
+      </c>
+      <c r="F134" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="G134" s="25">
+        <v>16581.84</v>
+      </c>
+      <c r="H134" s="24">
+        <v>12</v>
+      </c>
+      <c r="I134" s="24">
+        <v>12</v>
+      </c>
+      <c r="J134" s="24">
+        <v>12</v>
+      </c>
+      <c r="K134" s="24">
+        <v>12</v>
+      </c>
+      <c r="L134" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="5:12">
+      <c r="E135" s="24">
+        <v>11</v>
+      </c>
+      <c r="F135" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="G135" s="25">
+        <v>28723.464</v>
+      </c>
+      <c r="H135" s="24">
+        <v>13</v>
+      </c>
+      <c r="I135" s="24">
+        <v>13</v>
+      </c>
+      <c r="J135" s="24">
+        <v>13</v>
+      </c>
+      <c r="K135" s="24">
+        <v>13</v>
+      </c>
+      <c r="L135" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="5:12">
+      <c r="E136" s="24">
+        <v>12</v>
+      </c>
+      <c r="F136" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="G136" s="25">
+        <v>49835.8344</v>
+      </c>
+      <c r="H136" s="24">
+        <v>14</v>
+      </c>
+      <c r="I136" s="24">
+        <v>14</v>
+      </c>
+      <c r="J136" s="24">
+        <v>14</v>
+      </c>
+      <c r="K136" s="24">
+        <v>14</v>
+      </c>
+      <c r="L136" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="5:12">
+      <c r="E137" s="24">
+        <v>13</v>
+      </c>
+      <c r="F137" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="G137" s="25">
+        <v>94271.15808</v>
+      </c>
+      <c r="H137" s="24">
+        <v>15</v>
+      </c>
+      <c r="I137" s="24">
+        <v>15</v>
+      </c>
+      <c r="J137" s="24">
+        <v>15</v>
+      </c>
+      <c r="K137" s="24">
+        <v>15</v>
+      </c>
+      <c r="L137" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="5:12">
+      <c r="E138" s="24">
+        <v>14</v>
+      </c>
+      <c r="F138" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="G138" s="25">
+        <v>187339.090224</v>
+      </c>
+      <c r="H138" s="24">
+        <v>16</v>
+      </c>
+      <c r="I138" s="24">
+        <v>16</v>
+      </c>
+      <c r="J138" s="24">
+        <v>16</v>
+      </c>
+      <c r="K138" s="24">
+        <v>16</v>
+      </c>
+      <c r="L138" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="5:12">
+      <c r="E139" s="24">
+        <v>15</v>
+      </c>
+      <c r="F139" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="G139" s="25">
+        <v>394254.3476256</v>
+      </c>
+      <c r="H139" s="24">
+        <v>17</v>
+      </c>
+      <c r="I139" s="24">
+        <v>17</v>
+      </c>
+      <c r="J139" s="24">
+        <v>17</v>
+      </c>
+      <c r="K139" s="24">
+        <v>17</v>
+      </c>
+      <c r="L139" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="5:12">
+      <c r="E140" s="24">
+        <v>16</v>
+      </c>
+      <c r="F140" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="G140" s="25">
+        <v>872390.1567744</v>
+      </c>
+      <c r="H140" s="24">
+        <v>18</v>
+      </c>
+      <c r="I140" s="24">
+        <v>18</v>
+      </c>
+      <c r="J140" s="24">
+        <v>18</v>
+      </c>
+      <c r="K140" s="24">
+        <v>18</v>
+      </c>
+      <c r="L140" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="5:12">
+      <c r="E141" s="24">
+        <v>17</v>
+      </c>
+      <c r="F141" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="G141" s="25">
+        <v>2026631.20704</v>
+      </c>
+      <c r="H141" s="24">
+        <v>19</v>
+      </c>
+      <c r="I141" s="24">
+        <v>19</v>
+      </c>
+      <c r="J141" s="24">
+        <v>19</v>
+      </c>
+      <c r="K141" s="24">
+        <v>19</v>
+      </c>
+      <c r="L141" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="5:12">
+      <c r="E142" s="24">
+        <v>18</v>
+      </c>
+      <c r="F142" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="G142" s="25">
+        <v>4928336.31848448</v>
+      </c>
+      <c r="H142" s="24">
+        <v>20</v>
+      </c>
+      <c r="I142" s="24">
+        <v>20</v>
+      </c>
+      <c r="J142" s="24">
+        <v>20</v>
+      </c>
+      <c r="K142" s="24">
+        <v>20</v>
+      </c>
+      <c r="L142" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="3:4">
+      <c r="C144">
+        <v>6</v>
+      </c>
+      <c r="D144" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="146" spans="4:5">
+      <c r="D146">
+        <v>6.1</v>
+      </c>
+      <c r="E146" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="148" spans="5:7">
+      <c r="E148" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G148" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="149" spans="5:7">
+      <c r="E149" s="7">
+        <v>1</v>
+      </c>
+      <c r="F149" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G149" s="26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="150" spans="5:7">
+      <c r="E150" s="7">
+        <v>2</v>
+      </c>
+      <c r="F150" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="L71" t="s">
+      <c r="G150" s="27" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="107" spans="5:13">
-      <c r="E107" s="11" t="s">
+    <row r="151" spans="5:7">
+      <c r="E151" s="7">
+        <v>3</v>
+      </c>
+      <c r="F151" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G151" s="27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="154" spans="4:5">
+      <c r="D154">
+        <v>6.2</v>
+      </c>
+      <c r="E154" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="156" spans="5:7">
+      <c r="E156" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F107" s="11" t="s">
+      <c r="F156" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G107" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H107" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I107" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="1"/>
-    </row>
-    <row r="108" spans="5:13">
-      <c r="E108" s="6">
+      <c r="G156" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="157" ht="40.5" spans="5:7">
+      <c r="E157" s="7">
         <v>1</v>
       </c>
-      <c r="F108" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G108" s="10" t="s">
+      <c r="F157" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G157" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="160" spans="4:5">
+      <c r="D160">
+        <v>6.3</v>
+      </c>
+      <c r="E160" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="162" spans="5:7">
+      <c r="E162" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F162" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G162" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="163" ht="81" spans="5:7">
+      <c r="E163" s="7">
+        <v>1</v>
+      </c>
+      <c r="F163" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G163" s="21" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="166" spans="4:5">
+      <c r="D166">
+        <v>6.4</v>
+      </c>
+      <c r="E166" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="168" spans="5:7">
+      <c r="E168" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F168" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G168" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="169" ht="81" spans="5:7">
+      <c r="E169" s="7">
+        <v>1</v>
+      </c>
+      <c r="F169" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G169" s="21" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="170" spans="5:7">
+      <c r="E170" s="7">
+        <v>2</v>
+      </c>
+      <c r="F170" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G170" s="27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="171" spans="5:7">
+      <c r="E171" s="7">
+        <v>3</v>
+      </c>
+      <c r="F171" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G171" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="H108" s="10"/>
-      <c r="I108" s="10"/>
-      <c r="K108" s="13"/>
-      <c r="L108" s="13"/>
-      <c r="M108" s="1"/>
-    </row>
-    <row r="109" ht="27" spans="5:13">
-      <c r="E109" s="14">
+    </row>
+    <row r="173" spans="3:4">
+      <c r="C173">
+        <v>7</v>
+      </c>
+      <c r="D173" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="175" spans="5:9">
+      <c r="E175" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F175" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G175" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H175" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I175" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="176" spans="5:9">
+      <c r="E176" s="7">
+        <v>1</v>
+      </c>
+      <c r="F176" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G176" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H176" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="I176" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="177" spans="5:9">
+      <c r="E177" s="7">
         <v>2</v>
       </c>
-      <c r="F109" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="G109" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="H109" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="I109" s="14"/>
-      <c r="K109" s="5"/>
-      <c r="L109" s="5"/>
-      <c r="M109" s="1"/>
-    </row>
-    <row r="110" spans="5:13">
-      <c r="E110" s="17"/>
-      <c r="F110" s="15"/>
-      <c r="G110" s="15"/>
-      <c r="H110" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="I110" s="17"/>
-      <c r="K110" s="5"/>
-      <c r="L110" s="5"/>
-      <c r="M110" s="1"/>
-    </row>
-    <row r="111" spans="5:13">
-      <c r="E111" s="6">
+      <c r="F177" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G177" s="7"/>
+      <c r="H177" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="I177" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="178" spans="5:9">
+      <c r="E178" s="7">
         <v>3</v>
       </c>
-      <c r="F111" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="G111" s="18"/>
-      <c r="H111" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="I111" s="10"/>
-      <c r="K111" s="13"/>
-      <c r="L111" s="13"/>
-      <c r="M111" s="1"/>
-    </row>
-    <row r="112" spans="5:13">
-      <c r="E112" s="6">
-        <v>4</v>
-      </c>
-      <c r="F112" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G112" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="H112" s="10"/>
-      <c r="I112" s="10"/>
-      <c r="K112" s="13"/>
-      <c r="L112" s="13"/>
-      <c r="M112" s="1"/>
-    </row>
-    <row r="113" spans="11:13">
-      <c r="K113" s="1"/>
-      <c r="L113" s="1"/>
-      <c r="M113" s="1"/>
-    </row>
-    <row r="116" spans="3:4">
-      <c r="C116">
-        <v>5</v>
-      </c>
-      <c r="D116" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="117" spans="4:5">
-      <c r="D117" t="s">
-        <v>68</v>
-      </c>
-      <c r="E117" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="118" spans="12:12">
-      <c r="L118" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="119" spans="4:12">
-      <c r="D119" t="s">
-        <v>71</v>
-      </c>
-      <c r="E119" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F119" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="G119" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="H119" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="I119" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="J119" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="K119" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="L119" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="120" spans="4:12">
-      <c r="D120" t="s">
-        <v>80</v>
-      </c>
-      <c r="E120" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F120" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G120" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="H120" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="I120" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="J120" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="K120" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="L120" s="11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="121" spans="4:12">
-      <c r="D121" t="s">
-        <v>88</v>
-      </c>
-      <c r="E121" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="F121" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="G121" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="H121" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="I121" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="J121" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="K121" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="L121" s="11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="122" spans="5:12">
-      <c r="E122" s="19">
-        <v>1</v>
-      </c>
-      <c r="F122" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="G122" s="20">
-        <v>0</v>
-      </c>
-      <c r="H122" s="19">
-        <v>3</v>
-      </c>
-      <c r="I122" s="19">
-        <v>3</v>
-      </c>
-      <c r="J122" s="19">
-        <v>3</v>
-      </c>
-      <c r="K122" s="19">
-        <v>3</v>
-      </c>
-      <c r="L122" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="5:12">
-      <c r="E123" s="19">
-        <v>2</v>
-      </c>
-      <c r="F123" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="G123" s="20">
-        <v>240</v>
-      </c>
-      <c r="H123" s="19">
-        <v>4</v>
-      </c>
-      <c r="I123" s="19">
-        <v>4</v>
-      </c>
-      <c r="J123" s="19">
-        <v>4</v>
-      </c>
-      <c r="K123" s="19">
-        <v>4</v>
-      </c>
-      <c r="L123" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="5:12">
-      <c r="E124" s="19">
-        <v>3</v>
-      </c>
-      <c r="F124" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="G124" s="20">
-        <v>480</v>
-      </c>
-      <c r="H124" s="19">
-        <v>5</v>
-      </c>
-      <c r="I124" s="19">
-        <v>5</v>
-      </c>
-      <c r="J124" s="19">
-        <v>5</v>
-      </c>
-      <c r="K124" s="19">
-        <v>5</v>
-      </c>
-      <c r="L124" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="5:12">
-      <c r="E125" s="19">
-        <v>4</v>
-      </c>
-      <c r="F125" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="G125" s="20">
-        <v>720</v>
-      </c>
-      <c r="H125" s="19">
-        <v>6</v>
-      </c>
-      <c r="I125" s="19">
-        <v>6</v>
-      </c>
-      <c r="J125" s="19">
-        <v>6</v>
-      </c>
-      <c r="K125" s="19">
-        <v>6</v>
-      </c>
-      <c r="L125" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="5:12">
-      <c r="E126" s="19">
-        <v>5</v>
-      </c>
-      <c r="F126" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="G126" s="20">
-        <v>1200</v>
-      </c>
-      <c r="H126" s="19">
-        <v>7</v>
-      </c>
-      <c r="I126" s="19">
-        <v>7</v>
-      </c>
-      <c r="J126" s="19">
-        <v>7</v>
-      </c>
-      <c r="K126" s="19">
-        <v>7</v>
-      </c>
-      <c r="L126" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="5:12">
-      <c r="E127" s="19">
-        <v>6</v>
-      </c>
-      <c r="F127" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="G127" s="20">
-        <v>1920</v>
-      </c>
-      <c r="H127" s="19">
-        <v>8</v>
-      </c>
-      <c r="I127" s="19">
-        <v>8</v>
-      </c>
-      <c r="J127" s="19">
-        <v>8</v>
-      </c>
-      <c r="K127" s="19">
-        <v>8</v>
-      </c>
-      <c r="L127" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="5:12">
-      <c r="E128" s="19">
-        <v>7</v>
-      </c>
-      <c r="F128" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="G128" s="20">
-        <v>3120</v>
-      </c>
-      <c r="H128" s="19">
-        <v>9</v>
-      </c>
-      <c r="I128" s="19">
-        <v>9</v>
-      </c>
-      <c r="J128" s="19">
-        <v>9</v>
-      </c>
-      <c r="K128" s="19">
-        <v>9</v>
-      </c>
-      <c r="L128" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="5:12">
-      <c r="E129" s="19">
-        <v>8</v>
-      </c>
-      <c r="F129" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="G129" s="20">
-        <v>5544</v>
-      </c>
-      <c r="H129" s="19">
-        <v>10</v>
-      </c>
-      <c r="I129" s="19">
-        <v>10</v>
-      </c>
-      <c r="J129" s="19">
-        <v>10</v>
-      </c>
-      <c r="K129" s="19">
-        <v>10</v>
-      </c>
-      <c r="L129" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="5:12">
-      <c r="E130" s="19">
-        <v>9</v>
-      </c>
-      <c r="F130" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="G130" s="20">
-        <v>9530.4</v>
-      </c>
-      <c r="H130" s="19">
-        <v>11</v>
-      </c>
-      <c r="I130" s="19">
-        <v>11</v>
-      </c>
-      <c r="J130" s="19">
-        <v>11</v>
-      </c>
-      <c r="K130" s="19">
-        <v>11</v>
-      </c>
-      <c r="L130" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="5:12">
-      <c r="E131" s="19">
-        <v>10</v>
-      </c>
-      <c r="F131" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="G131" s="20">
-        <v>16581.84</v>
-      </c>
-      <c r="H131" s="19">
-        <v>12</v>
-      </c>
-      <c r="I131" s="19">
-        <v>12</v>
-      </c>
-      <c r="J131" s="19">
-        <v>12</v>
-      </c>
-      <c r="K131" s="19">
-        <v>12</v>
-      </c>
-      <c r="L131" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="5:12">
-      <c r="E132" s="19">
-        <v>11</v>
-      </c>
-      <c r="F132" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="G132" s="20">
-        <v>28723.464</v>
-      </c>
-      <c r="H132" s="19">
-        <v>13</v>
-      </c>
-      <c r="I132" s="19">
-        <v>13</v>
-      </c>
-      <c r="J132" s="19">
-        <v>13</v>
-      </c>
-      <c r="K132" s="19">
-        <v>13</v>
-      </c>
-      <c r="L132" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="5:12">
-      <c r="E133" s="19">
-        <v>12</v>
-      </c>
-      <c r="F133" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="G133" s="20">
-        <v>49835.8344</v>
-      </c>
-      <c r="H133" s="19">
-        <v>14</v>
-      </c>
-      <c r="I133" s="19">
-        <v>14</v>
-      </c>
-      <c r="J133" s="19">
-        <v>14</v>
-      </c>
-      <c r="K133" s="19">
-        <v>14</v>
-      </c>
-      <c r="L133" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="5:12">
-      <c r="E134" s="19">
-        <v>13</v>
-      </c>
-      <c r="F134" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="G134" s="20">
-        <v>94271.15808</v>
-      </c>
-      <c r="H134" s="19">
-        <v>15</v>
-      </c>
-      <c r="I134" s="19">
-        <v>15</v>
-      </c>
-      <c r="J134" s="19">
-        <v>15</v>
-      </c>
-      <c r="K134" s="19">
-        <v>15</v>
-      </c>
-      <c r="L134" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="5:12">
-      <c r="E135" s="19">
-        <v>14</v>
-      </c>
-      <c r="F135" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="G135" s="20">
-        <v>187339.090224</v>
-      </c>
-      <c r="H135" s="19">
-        <v>16</v>
-      </c>
-      <c r="I135" s="19">
-        <v>16</v>
-      </c>
-      <c r="J135" s="19">
-        <v>16</v>
-      </c>
-      <c r="K135" s="19">
-        <v>16</v>
-      </c>
-      <c r="L135" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="5:12">
-      <c r="E136" s="19">
-        <v>15</v>
-      </c>
-      <c r="F136" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="G136" s="20">
-        <v>394254.3476256</v>
-      </c>
-      <c r="H136" s="19">
-        <v>17</v>
-      </c>
-      <c r="I136" s="19">
-        <v>17</v>
-      </c>
-      <c r="J136" s="19">
-        <v>17</v>
-      </c>
-      <c r="K136" s="19">
-        <v>17</v>
-      </c>
-      <c r="L136" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="5:12">
-      <c r="E137" s="19">
-        <v>16</v>
-      </c>
-      <c r="F137" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="G137" s="20">
-        <v>872390.1567744</v>
-      </c>
-      <c r="H137" s="19">
-        <v>18</v>
-      </c>
-      <c r="I137" s="19">
-        <v>18</v>
-      </c>
-      <c r="J137" s="19">
-        <v>18</v>
-      </c>
-      <c r="K137" s="19">
-        <v>18</v>
-      </c>
-      <c r="L137" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="5:12">
-      <c r="E138" s="19">
-        <v>17</v>
-      </c>
-      <c r="F138" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="G138" s="20">
-        <v>2026631.20704</v>
-      </c>
-      <c r="H138" s="19">
-        <v>19</v>
-      </c>
-      <c r="I138" s="19">
-        <v>19</v>
-      </c>
-      <c r="J138" s="19">
-        <v>19</v>
-      </c>
-      <c r="K138" s="19">
-        <v>19</v>
-      </c>
-      <c r="L138" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="5:12">
-      <c r="E139" s="19">
-        <v>18</v>
-      </c>
-      <c r="F139" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="G139" s="20">
-        <v>4928336.31848448</v>
-      </c>
-      <c r="H139" s="19">
-        <v>20</v>
-      </c>
-      <c r="I139" s="19">
-        <v>20</v>
-      </c>
-      <c r="J139" s="19">
-        <v>20</v>
-      </c>
-      <c r="K139" s="19">
-        <v>20</v>
-      </c>
-      <c r="L139" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="3:4">
-      <c r="C141">
-        <v>6</v>
-      </c>
-      <c r="D141" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="143" spans="4:5">
-      <c r="D143">
-        <v>6.1</v>
-      </c>
-      <c r="E143" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="145" spans="5:7">
-      <c r="E145" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G145" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="146" spans="5:7">
-      <c r="E146" s="6">
-        <v>1</v>
-      </c>
-      <c r="F146" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="G146" s="21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="147" spans="5:7">
-      <c r="E147" s="6">
-        <v>2</v>
-      </c>
-      <c r="F147" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G147" s="22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="148" spans="5:7">
-      <c r="E148" s="6">
-        <v>3</v>
-      </c>
-      <c r="F148" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G148" s="22" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="151" spans="4:5">
-      <c r="D151">
-        <v>6.2</v>
-      </c>
-      <c r="E151" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="153" spans="5:7">
-      <c r="E153" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G153" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="154" ht="40.5" spans="5:7">
-      <c r="E154" s="6">
-        <v>1</v>
-      </c>
-      <c r="F154" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="G154" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="157" spans="4:5">
-      <c r="D157">
-        <v>6.3</v>
-      </c>
-      <c r="E157" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="159" spans="5:7">
-      <c r="E159" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F159" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G159" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="160" ht="81" spans="5:7">
-      <c r="E160" s="6">
-        <v>1</v>
-      </c>
-      <c r="F160" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="G160" s="16" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="163" spans="4:5">
-      <c r="D163">
-        <v>6.4</v>
-      </c>
-      <c r="E163" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="165" spans="5:7">
-      <c r="E165" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F165" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G165" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="166" ht="81" spans="5:7">
-      <c r="E166" s="6">
-        <v>1</v>
-      </c>
-      <c r="F166" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="G166" s="16" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="167" spans="5:7">
-      <c r="E167" s="6">
-        <v>2</v>
-      </c>
-      <c r="F167" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="G167" s="22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="168" spans="5:7">
-      <c r="E168" s="6">
-        <v>3</v>
-      </c>
-      <c r="F168" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="G168" s="22" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="170" spans="3:4">
-      <c r="C170">
-        <v>7</v>
-      </c>
-      <c r="D170" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="172" spans="5:9">
-      <c r="E172" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F172" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G172" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H172" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="I172" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="173" spans="5:9">
-      <c r="E173" s="6">
-        <v>1</v>
-      </c>
-      <c r="F173" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="G173" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="H173" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="I173" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="174" spans="5:9">
-      <c r="E174" s="6">
-        <v>2</v>
-      </c>
-      <c r="F174" s="6" t="s">
+      <c r="F178" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G178" s="7"/>
+      <c r="H178" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="G174" s="6"/>
-      <c r="H174" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="I174" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="175" spans="5:9">
-      <c r="E175" s="6">
-        <v>3</v>
-      </c>
-      <c r="F175" s="6" t="s">
+      <c r="I178" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="G175" s="6"/>
-      <c r="H175" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="I175" s="6" t="s">
-        <v>130</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="I109:I110"/>
+    <mergeCell ref="E112:E113"/>
+    <mergeCell ref="F112:F113"/>
+    <mergeCell ref="G112:G113"/>
+    <mergeCell ref="I112:I113"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G146" location="Sheet1!F24" display="图4"/>
-    <hyperlink ref="G147" location="Sheet1!F69" display="图4.1.A"/>
-    <hyperlink ref="G148" location="Sheet1!L69" display="图4.1.C"/>
-    <hyperlink ref="G160" location="Sheet1!L69" display="图4.1.C晋升时先显示当前主角全身形象，然后一道光柱从下往上冲起，替换成晋升后主角全身形象，之后在右侧显示，晋升后身份名称和身份权限，整个过程3s左右。"/>
-    <hyperlink ref="G64" location="Sheet1!F69" display="单击，打开主角晋升界面"/>
-    <hyperlink ref="H109" location="Sheet1!H69" display="威望值不足时，弹出提示信息（&#10;图4.1.B）显示2秒后淡出"/>
-    <hyperlink ref="H110" location="Sheet1!L69" display="晋升成功，展示（图4.1.C）"/>
-    <hyperlink ref="G166" location="Sheet1!F24" display="卧室(图4)根据主角身份不同会有所变化，前期为简陋的房间，逐步增加梳妆台，屏风等场景物件，特定时间点会有更换房间的表现（需和编剧最终确认量化卧室数量）"/>
-    <hyperlink ref="G167" location="Sheet1!F69" display="图4.1.A"/>
-    <hyperlink ref="G168" location="Sheet1!L69" display="图4.1.C"/>
+    <hyperlink ref="G149" location="Sheet1!F24" display="图4"/>
+    <hyperlink ref="G150" location="Sheet1!F69" display="图4.1.A"/>
+    <hyperlink ref="G151" location="Sheet1!L69" display="图4.1.C"/>
+    <hyperlink ref="G163" location="Sheet1!L69" display="图4.1.C晋升时先显示当前主角全身形象，然后一道光柱从下往上冲起，替换成晋升后主角全身形象，之后在右侧显示，晋升后身份名称和身份权限，整个过程3s左右。"/>
+    <hyperlink ref="G65" location="Sheet1!F69" display="单击，打开主角晋升界面"/>
+    <hyperlink ref="H112" location="Sheet1!H69" display="威望值不足时，弹出提示信息（&#10;图4.1.B）显示2秒后淡出"/>
+    <hyperlink ref="H113" location="Sheet1!L69" display="晋升成功，展示（图4.1.C）"/>
+    <hyperlink ref="G169" location="Sheet1!F24" display="卧室(图4)根据主角身份不同会有所变化，前期为简陋的房间，逐步增加梳妆台，屏风等场景物件，特定时间点会有更换房间的表现（需和编剧最终确认量化卧室数量）"/>
+    <hyperlink ref="G170" location="Sheet1!F69" display="图4.1.A"/>
+    <hyperlink ref="G171" location="Sheet1!L69" display="图4.1.C"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/7月制作内容/系统文档/【蔡文吉】我的房间文档.xlsx
+++ b/7月制作内容/系统文档/【蔡文吉】我的房间文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13065" activeTab="1"/>
+    <workbookView windowWidth="24180" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="版本目录" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137">
   <si>
     <t>修订记录</t>
   </si>
@@ -50,6 +50,9 @@
     <t>2.设计思路</t>
   </si>
   <si>
+    <t>晋升按钮逻辑修改</t>
+  </si>
+  <si>
     <t>3.功能说明</t>
   </si>
   <si>
@@ -191,7 +194,7 @@
     <t>图4.1.A</t>
   </si>
   <si>
-    <t>图4.1.B</t>
+    <t>图4.1.B（需求修改，作废）</t>
   </si>
   <si>
     <t>图4.1.C</t>
@@ -208,6 +211,9 @@
   <si>
     <t>威望值不足时，弹出提示信息（
 图4.1.B）显示2秒后淡出</t>
+  </si>
+  <si>
+    <t>威望不足时，晋升按钮为禁用状态，不可点击</t>
   </si>
   <si>
     <t>晋升成功，展示（图4.1.C）</t>
@@ -428,11 +434,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -459,97 +465,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -571,11 +488,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -586,8 +532,68 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -602,7 +608,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,13 +668,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,151 +782,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -850,11 +862,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -885,26 +912,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -924,26 +936,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -955,10 +967,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -967,16 +979,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -991,113 +1003,113 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1146,46 +1158,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="10" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="10" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="10" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="10" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
@@ -2986,36 +3010,37 @@
   <sheetPr/>
   <dimension ref="B1:L15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
+    <col min="3" max="3" width="9.375"/>
     <col min="4" max="4" width="38.5" customWidth="1"/>
     <col min="11" max="11" width="15.125" customWidth="1"/>
     <col min="12" max="12" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12">
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="K1" s="28" t="s">
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="K1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="28"/>
+      <c r="L1" s="29"/>
     </row>
     <row r="2" spans="2:12">
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
     </row>
     <row r="3" spans="2:11">
       <c r="B3" s="3" t="s">
@@ -3030,7 +3055,7 @@
       <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="30" t="s">
+      <c r="K3" s="34" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3038,7 +3063,7 @@
       <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="30">
         <v>43647</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -3047,63 +3072,75 @@
       <c r="E4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="31" t="s">
+      <c r="K4" s="35" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="11:11">
-      <c r="K5" s="31" t="s">
+    <row r="5" spans="2:11">
+      <c r="B5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="31">
+        <v>43651</v>
+      </c>
+      <c r="D5" s="32" t="s">
         <v>11</v>
       </c>
+      <c r="E5" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="35" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" spans="12:12">
-      <c r="L6" s="31" t="s">
-        <v>12</v>
+      <c r="L6" s="35" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="11:11">
-      <c r="K7" s="31" t="s">
-        <v>13</v>
+      <c r="K7" s="35" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="12:12">
-      <c r="L8" s="31" t="s">
-        <v>14</v>
+      <c r="L8" s="35" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="11:11">
-      <c r="K9" s="31" t="s">
-        <v>15</v>
+      <c r="K9" s="35" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="11:11">
-      <c r="K10" s="31" t="s">
-        <v>16</v>
+      <c r="K10" s="35" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="12:12">
-      <c r="L11" s="31" t="s">
-        <v>17</v>
+      <c r="L11" s="35" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="12:12">
-      <c r="L12" s="31" t="s">
-        <v>18</v>
+      <c r="L12" s="35" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="12:12">
-      <c r="L13" s="31" t="s">
-        <v>19</v>
+      <c r="L13" s="35" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="12:12">
-      <c r="L14" s="31" t="s">
-        <v>20</v>
+      <c r="L14" s="35" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="11:11">
-      <c r="K15" s="31" t="s">
-        <v>21</v>
+      <c r="K15" s="35" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -3125,6 +3162,7 @@
     <hyperlink ref="L13" location="v0.1!E160" display="6.3动画需求"/>
     <hyperlink ref="L14" location="版本目录!E166" display="6.4场景需求"/>
     <hyperlink ref="K15" location="v0.1!D173" display="7.音效需求"/>
+    <hyperlink ref="D5" location="版本目录!i112" display="晋升按钮逻辑修改"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -3136,8 +3174,8 @@
   <sheetPr/>
   <dimension ref="C2:M178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C28" workbookViewId="0">
-      <selection activeCell="G77" sqref="G77"/>
+    <sheetView topLeftCell="C72" workbookViewId="0">
+      <selection activeCell="J103" sqref="J103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3155,7 +3193,7 @@
   <sheetData>
     <row r="2" spans="3:3">
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="3:4">
@@ -3163,12 +3201,12 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="3:4">
@@ -3176,12 +3214,12 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="3:4">
@@ -3189,7 +3227,7 @@
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="4:5">
@@ -3197,7 +3235,7 @@
         <v>3.1</v>
       </c>
       <c r="E15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="8:11">
@@ -3208,13 +3246,13 @@
     </row>
     <row r="17" spans="5:11">
       <c r="E17" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="2"/>
@@ -3223,13 +3261,13 @@
     </row>
     <row r="18" spans="5:11">
       <c r="E18" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H18" s="10"/>
       <c r="I18" s="2"/>
@@ -3238,13 +3276,13 @@
     </row>
     <row r="19" ht="42" customHeight="1" spans="5:11">
       <c r="E19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="2"/>
@@ -3256,12 +3294,12 @@
         <v>3.2</v>
       </c>
       <c r="E21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="5:5">
       <c r="E23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="3:4">
@@ -3269,29 +3307,29 @@
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="6:6">
       <c r="F26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="61" spans="5:13">
       <c r="E61" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K61" s="15"/>
       <c r="L61" s="15"/>
@@ -3302,26 +3340,26 @@
         <v>1</v>
       </c>
       <c r="F62" s="13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G62" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H62" s="14"/>
       <c r="I62" s="14"/>
-      <c r="K62" s="16"/>
-      <c r="L62" s="16"/>
-      <c r="M62" s="17"/>
+      <c r="K62" s="15"/>
+      <c r="L62" s="15"/>
+      <c r="M62" s="2"/>
     </row>
     <row r="63" spans="5:13">
       <c r="E63" s="7">
         <v>2</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H63" s="11"/>
       <c r="I63" s="11"/>
@@ -3334,13 +3372,13 @@
         <v>3</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I64" s="11"/>
       <c r="K64" s="15"/>
@@ -3352,13 +3390,13 @@
         <v>4</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G65" s="18" t="s">
         <v>54</v>
       </c>
+      <c r="G65" s="16" t="s">
+        <v>55</v>
+      </c>
       <c r="H65" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I65" s="11"/>
       <c r="K65" s="6"/>
@@ -3380,35 +3418,35 @@
         <v>4.1</v>
       </c>
       <c r="E71" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="72" spans="6:12">
       <c r="F72" t="s">
-        <v>57</v>
-      </c>
-      <c r="H72" t="s">
         <v>58</v>
       </c>
+      <c r="H72" s="17" t="s">
+        <v>59</v>
+      </c>
       <c r="L72" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="110" spans="5:13">
       <c r="E110" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F110" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G110" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I110" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K110" s="15"/>
       <c r="L110" s="15"/>
@@ -3419,10 +3457,10 @@
         <v>1</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G111" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H111" s="11"/>
       <c r="I111" s="11"/>
@@ -3430,32 +3468,34 @@
       <c r="L111" s="15"/>
       <c r="M111" s="2"/>
     </row>
-    <row r="112" ht="27" spans="5:13">
-      <c r="E112" s="19">
+    <row r="112" ht="40.5" spans="5:13">
+      <c r="E112" s="18">
         <v>2</v>
       </c>
-      <c r="F112" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="G112" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="H112" s="21" t="s">
+      <c r="F112" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G112" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="I112" s="19"/>
+      <c r="H112" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="I112" s="9" t="s">
+        <v>65</v>
+      </c>
       <c r="K112" s="6"/>
       <c r="L112" s="6"/>
       <c r="M112" s="2"/>
     </row>
     <row r="113" spans="5:13">
-      <c r="E113" s="22"/>
-      <c r="F113" s="20"/>
-      <c r="G113" s="20"/>
-      <c r="H113" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="I113" s="22"/>
+      <c r="E113" s="21"/>
+      <c r="F113" s="19"/>
+      <c r="G113" s="19"/>
+      <c r="H113" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="I113" s="11"/>
       <c r="K113" s="6"/>
       <c r="L113" s="6"/>
       <c r="M113" s="2"/>
@@ -3465,11 +3505,11 @@
         <v>3</v>
       </c>
       <c r="F114" s="11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G114" s="23"/>
       <c r="H114" s="11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I114" s="11"/>
       <c r="K114" s="15"/>
@@ -3481,10 +3521,10 @@
         <v>4</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G115" s="11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H115" s="11"/>
       <c r="I115" s="11"/>
@@ -3502,107 +3542,107 @@
         <v>5</v>
       </c>
       <c r="D119" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="120" spans="4:5">
       <c r="D120" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E120" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="121" spans="12:12">
       <c r="L121" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="122" spans="4:12">
       <c r="D122" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E122" s="12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F122" s="12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G122" s="12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H122" s="12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I122" s="12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J122" s="12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K122" s="12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L122" s="12" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="123" spans="4:12">
       <c r="D123" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E123" s="12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F123" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G123" s="12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H123" s="12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I123" s="12" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J123" s="12" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K123" s="12" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L123" s="12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="124" spans="4:12">
       <c r="D124" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E124" s="12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F124" s="12" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G124" s="12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H124" s="12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I124" s="12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="J124" s="12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K124" s="12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L124" s="12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="125" spans="5:12">
@@ -3610,7 +3650,7 @@
         <v>1</v>
       </c>
       <c r="F125" s="24" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G125" s="25">
         <v>0</v>
@@ -3636,7 +3676,7 @@
         <v>2</v>
       </c>
       <c r="F126" s="24" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G126" s="25">
         <v>240</v>
@@ -3662,7 +3702,7 @@
         <v>3</v>
       </c>
       <c r="F127" s="24" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G127" s="25">
         <v>480</v>
@@ -3688,7 +3728,7 @@
         <v>4</v>
       </c>
       <c r="F128" s="24" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G128" s="25">
         <v>720</v>
@@ -3714,7 +3754,7 @@
         <v>5</v>
       </c>
       <c r="F129" s="24" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G129" s="25">
         <v>1200</v>
@@ -3740,7 +3780,7 @@
         <v>6</v>
       </c>
       <c r="F130" s="24" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G130" s="25">
         <v>1920</v>
@@ -3766,7 +3806,7 @@
         <v>7</v>
       </c>
       <c r="F131" s="24" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G131" s="25">
         <v>3120</v>
@@ -3792,7 +3832,7 @@
         <v>8</v>
       </c>
       <c r="F132" s="24" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G132" s="25">
         <v>5544</v>
@@ -3818,7 +3858,7 @@
         <v>9</v>
       </c>
       <c r="F133" s="24" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G133" s="25">
         <v>9530.4</v>
@@ -3844,7 +3884,7 @@
         <v>10</v>
       </c>
       <c r="F134" s="24" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G134" s="25">
         <v>16581.84</v>
@@ -3870,7 +3910,7 @@
         <v>11</v>
       </c>
       <c r="F135" s="24" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G135" s="25">
         <v>28723.464</v>
@@ -3896,7 +3936,7 @@
         <v>12</v>
       </c>
       <c r="F136" s="24" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G136" s="25">
         <v>49835.8344</v>
@@ -3922,7 +3962,7 @@
         <v>13</v>
       </c>
       <c r="F137" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G137" s="25">
         <v>94271.15808</v>
@@ -3948,7 +3988,7 @@
         <v>14</v>
       </c>
       <c r="F138" s="24" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G138" s="25">
         <v>187339.090224</v>
@@ -3974,7 +4014,7 @@
         <v>15</v>
       </c>
       <c r="F139" s="24" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G139" s="25">
         <v>394254.3476256</v>
@@ -4000,7 +4040,7 @@
         <v>16</v>
       </c>
       <c r="F140" s="24" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G140" s="25">
         <v>872390.1567744</v>
@@ -4026,7 +4066,7 @@
         <v>17</v>
       </c>
       <c r="F141" s="24" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G141" s="25">
         <v>2026631.20704</v>
@@ -4052,7 +4092,7 @@
         <v>18</v>
       </c>
       <c r="F142" s="24" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G142" s="25">
         <v>4928336.31848448</v>
@@ -4078,7 +4118,7 @@
         <v>6</v>
       </c>
       <c r="D144" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="146" spans="4:5">
@@ -4086,18 +4126,18 @@
         <v>6.1</v>
       </c>
       <c r="E146" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="148" spans="5:7">
       <c r="E148" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="149" spans="5:7">
@@ -4105,10 +4145,10 @@
         <v>1</v>
       </c>
       <c r="F149" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G149" s="26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="150" spans="5:7">
@@ -4116,10 +4156,10 @@
         <v>2</v>
       </c>
       <c r="F150" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G150" s="27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="151" spans="5:7">
@@ -4127,10 +4167,10 @@
         <v>3</v>
       </c>
       <c r="F151" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G151" s="27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="154" spans="4:5">
@@ -4138,18 +4178,18 @@
         <v>6.2</v>
       </c>
       <c r="E154" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="156" spans="5:7">
       <c r="E156" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="157" ht="40.5" spans="5:7">
@@ -4157,10 +4197,10 @@
         <v>1</v>
       </c>
       <c r="F157" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G157" s="9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="160" spans="4:5">
@@ -4168,18 +4208,18 @@
         <v>6.3</v>
       </c>
       <c r="E160" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="162" spans="5:7">
       <c r="E162" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="163" ht="81" spans="5:7">
@@ -4187,10 +4227,10 @@
         <v>1</v>
       </c>
       <c r="F163" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G163" s="21" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="G163" s="28" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="166" spans="4:5">
@@ -4198,18 +4238,18 @@
         <v>6.4</v>
       </c>
       <c r="E166" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="168" spans="5:7">
       <c r="E168" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="169" ht="81" spans="5:7">
@@ -4217,10 +4257,10 @@
         <v>1</v>
       </c>
       <c r="F169" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G169" s="21" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="G169" s="28" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="170" spans="5:7">
@@ -4228,10 +4268,10 @@
         <v>2</v>
       </c>
       <c r="F170" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G170" s="27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="171" spans="5:7">
@@ -4239,10 +4279,10 @@
         <v>3</v>
       </c>
       <c r="F171" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G171" s="27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="173" spans="3:4">
@@ -4250,24 +4290,24 @@
         <v>7</v>
       </c>
       <c r="D173" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="175" spans="5:9">
       <c r="E175" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H175" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I175" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="176" spans="5:9">
@@ -4275,16 +4315,16 @@
         <v>1</v>
       </c>
       <c r="F176" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G176" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H176" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I176" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="177" spans="5:9">
@@ -4292,14 +4332,14 @@
         <v>2</v>
       </c>
       <c r="F177" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G177" s="7"/>
       <c r="H177" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I177" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="178" spans="5:9">
@@ -4307,22 +4347,21 @@
         <v>3</v>
       </c>
       <c r="F178" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G178" s="7"/>
       <c r="H178" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I178" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="E112:E113"/>
     <mergeCell ref="F112:F113"/>
     <mergeCell ref="G112:G113"/>
-    <mergeCell ref="I112:I113"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G149" location="Sheet1!F24" display="图4"/>
@@ -4330,11 +4369,10 @@
     <hyperlink ref="G151" location="Sheet1!L69" display="图4.1.C"/>
     <hyperlink ref="G163" location="Sheet1!L69" display="图4.1.C晋升时先显示当前主角全身形象，然后一道光柱从下往上冲起，替换成晋升后主角全身形象，之后在右侧显示，晋升后身份名称和身份权限，整个过程3s左右。"/>
     <hyperlink ref="G65" location="Sheet1!F69" display="单击，打开主角晋升界面"/>
-    <hyperlink ref="H112" location="Sheet1!H69" display="威望值不足时，弹出提示信息（&#10;图4.1.B）显示2秒后淡出"/>
-    <hyperlink ref="H113" location="Sheet1!L69" display="晋升成功，展示（图4.1.C）"/>
     <hyperlink ref="G169" location="Sheet1!F24" display="卧室(图4)根据主角身份不同会有所变化，前期为简陋的房间，逐步增加梳妆台，屏风等场景物件，特定时间点会有更换房间的表现（需和编剧最终确认量化卧室数量）"/>
     <hyperlink ref="G170" location="Sheet1!F69" display="图4.1.A"/>
     <hyperlink ref="G171" location="Sheet1!L69" display="图4.1.C"/>
+    <hyperlink ref="H72" location="v0.1!I112" display="图4.1.B（需求修改，作废）"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/7月制作内容/系统文档/【蔡文吉】我的房间文档.xlsx
+++ b/7月制作内容/系统文档/【蔡文吉】我的房间文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13065"/>
+    <workbookView windowWidth="24180" windowHeight="13065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="版本目录" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141">
   <si>
     <t>修订记录</t>
   </si>
@@ -267,6 +267,12 @@
     <t>operate_num_4</t>
   </si>
   <si>
+    <t>reward_ornament_id</t>
+  </si>
+  <si>
+    <t>salary</t>
+  </si>
+  <si>
     <t>reward_card_id</t>
   </si>
   <si>
@@ -279,16 +285,22 @@
     <t>晋升所需经验</t>
   </si>
   <si>
-    <t>领取份例次数</t>
+    <t>份例次数</t>
   </si>
   <si>
     <t>杂务次数</t>
   </si>
   <si>
-    <t>争辩次数</t>
+    <t>智斗次数</t>
   </si>
   <si>
     <t>家务次数</t>
+  </si>
+  <si>
+    <t>装扮奖励id</t>
+  </si>
+  <si>
+    <t>每日薪俸</t>
   </si>
   <si>
     <t>奖励卡牌id</t>
@@ -434,11 +446,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0;[Red]0"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -465,21 +477,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -489,21 +486,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -519,22 +509,28 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -542,7 +538,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -557,13 +583,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -571,23 +590,16 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -614,19 +626,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -644,25 +686,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -674,19 +698,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -698,7 +722,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -710,19 +752,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -734,31 +764,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -770,7 +776,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -782,19 +800,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -862,26 +874,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -897,17 +920,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -936,6 +948,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -944,21 +971,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -967,10 +979,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -979,16 +991,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1000,116 +1012,116 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1188,6 +1200,9 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1201,15 +1216,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="10" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
@@ -1290,7 +1296,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1197610</xdr:colOff>
+      <xdr:colOff>864235</xdr:colOff>
       <xdr:row>104</xdr:row>
       <xdr:rowOff>170180</xdr:rowOff>
     </xdr:to>
@@ -1880,14 +1886,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>146050</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1365250</xdr:colOff>
       <xdr:row>97</xdr:row>
       <xdr:rowOff>146685</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>574675</xdr:colOff>
+      <xdr:colOff>241300</xdr:colOff>
       <xdr:row>100</xdr:row>
       <xdr:rowOff>32385</xdr:rowOff>
     </xdr:to>
@@ -3010,7 +3016,7 @@
   <sheetPr/>
   <dimension ref="B1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -3023,24 +3029,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12">
-      <c r="B1" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="K1" s="29" t="s">
+      <c r="B1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="K1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="29"/>
+      <c r="L1" s="30"/>
     </row>
     <row r="2" spans="2:12">
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
     </row>
     <row r="3" spans="2:11">
       <c r="B3" s="3" t="s">
@@ -3055,7 +3061,7 @@
       <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="34" t="s">
+      <c r="K3" s="32" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3063,7 +3069,7 @@
       <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="31">
         <v>43647</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -3072,7 +3078,7 @@
       <c r="E4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="35" t="s">
+      <c r="K4" s="33" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3083,63 +3089,63 @@
       <c r="C5" s="31">
         <v>43651</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="35" t="s">
+      <c r="K5" s="33" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="12:12">
-      <c r="L6" s="35" t="s">
+      <c r="L6" s="33" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="11:11">
-      <c r="K7" s="35" t="s">
+      <c r="K7" s="33" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="12:12">
-      <c r="L8" s="35" t="s">
+      <c r="L8" s="33" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="11:11">
-      <c r="K9" s="35" t="s">
+      <c r="K9" s="33" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="11:11">
-      <c r="K10" s="35" t="s">
+      <c r="K10" s="33" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="12:12">
-      <c r="L11" s="35" t="s">
+      <c r="L11" s="33" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="12:12">
-      <c r="L12" s="35" t="s">
+      <c r="L12" s="33" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="12:12">
-      <c r="L13" s="35" t="s">
+      <c r="L13" s="33" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="12:12">
-      <c r="L14" s="35" t="s">
+      <c r="L14" s="33" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="15" spans="11:11">
-      <c r="K15" s="35" t="s">
+      <c r="K15" s="33" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3172,10 +3178,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="C2:M178"/>
+  <dimension ref="C2:N178"/>
   <sheetViews>
-    <sheetView topLeftCell="C72" workbookViewId="0">
-      <selection activeCell="J103" sqref="J103"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="M112" sqref="M112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3186,7 +3192,7 @@
     <col min="7" max="8" width="27.5" customWidth="1"/>
     <col min="9" max="10" width="16" customWidth="1"/>
     <col min="11" max="11" width="14.875" customWidth="1"/>
-    <col min="12" max="12" width="16" customWidth="1"/>
+    <col min="12" max="12" width="20.375" customWidth="1"/>
     <col min="13" max="13" width="27" customWidth="1"/>
     <col min="14" max="14" width="27.125" customWidth="1"/>
   </cols>
@@ -3553,12 +3559,18 @@
         <v>73</v>
       </c>
     </row>
-    <row r="121" spans="12:12">
+    <row r="121" spans="12:14">
       <c r="L121" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="122" spans="4:12">
+      <c r="M121" t="s">
+        <v>74</v>
+      </c>
+      <c r="N121" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="122" spans="4:14">
       <c r="D122" t="s">
         <v>75</v>
       </c>
@@ -3586,71 +3598,89 @@
       <c r="L122" s="12" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="123" spans="4:12">
+      <c r="M122" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="N122" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="123" spans="4:14">
       <c r="D123" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E123" s="12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F123" s="12" t="s">
         <v>43</v>
       </c>
       <c r="G123" s="12" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H123" s="12" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I123" s="12" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J123" s="12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K123" s="12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L123" s="12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="124" spans="4:12">
+        <v>93</v>
+      </c>
+      <c r="M123" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="N123" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="124" spans="4:14">
       <c r="D124" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E124" s="12" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F124" s="12" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G124" s="12" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H124" s="12" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I124" s="12" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="J124" s="12" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="K124" s="12" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="L124" s="12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="125" spans="5:12">
+        <v>97</v>
+      </c>
+      <c r="M124" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="N124" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="125" spans="5:14">
       <c r="E125" s="24">
         <v>1</v>
       </c>
       <c r="F125" s="24" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G125" s="25">
         <v>0</v>
@@ -3667,16 +3697,22 @@
       <c r="K125" s="24">
         <v>3</v>
       </c>
-      <c r="L125" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="5:12">
+      <c r="L125" s="24">
+        <v>0</v>
+      </c>
+      <c r="M125" s="24">
+        <v>0</v>
+      </c>
+      <c r="N125" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="5:14">
       <c r="E126" s="24">
         <v>2</v>
       </c>
       <c r="F126" s="24" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G126" s="25">
         <v>240</v>
@@ -3693,16 +3729,22 @@
       <c r="K126" s="24">
         <v>4</v>
       </c>
-      <c r="L126" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="5:12">
+      <c r="L126" s="24">
+        <v>0</v>
+      </c>
+      <c r="M126" s="24">
+        <v>0</v>
+      </c>
+      <c r="N126" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="5:14">
       <c r="E127" s="24">
         <v>3</v>
       </c>
       <c r="F127" s="24" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G127" s="25">
         <v>480</v>
@@ -3719,16 +3761,22 @@
       <c r="K127" s="24">
         <v>5</v>
       </c>
-      <c r="L127" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="5:12">
+      <c r="L127" s="24">
+        <v>0</v>
+      </c>
+      <c r="M127" s="24">
+        <v>0</v>
+      </c>
+      <c r="N127" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="5:14">
       <c r="E128" s="24">
         <v>4</v>
       </c>
       <c r="F128" s="24" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G128" s="25">
         <v>720</v>
@@ -3745,16 +3793,22 @@
       <c r="K128" s="24">
         <v>6</v>
       </c>
-      <c r="L128" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="5:12">
+      <c r="L128" s="24">
+        <v>0</v>
+      </c>
+      <c r="M128" s="24">
+        <v>0</v>
+      </c>
+      <c r="N128" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="5:14">
       <c r="E129" s="24">
         <v>5</v>
       </c>
       <c r="F129" s="24" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G129" s="25">
         <v>1200</v>
@@ -3771,16 +3825,22 @@
       <c r="K129" s="24">
         <v>7</v>
       </c>
-      <c r="L129" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="5:12">
+      <c r="L129" s="24">
+        <v>0</v>
+      </c>
+      <c r="M129" s="24">
+        <v>0</v>
+      </c>
+      <c r="N129" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="5:14">
       <c r="E130" s="24">
         <v>6</v>
       </c>
       <c r="F130" s="24" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G130" s="25">
         <v>1920</v>
@@ -3797,16 +3857,22 @@
       <c r="K130" s="24">
         <v>8</v>
       </c>
-      <c r="L130" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="5:12">
+      <c r="L130" s="24">
+        <v>0</v>
+      </c>
+      <c r="M130" s="24">
+        <v>0</v>
+      </c>
+      <c r="N130" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="5:14">
       <c r="E131" s="24">
         <v>7</v>
       </c>
       <c r="F131" s="24" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G131" s="25">
         <v>3120</v>
@@ -3823,16 +3889,22 @@
       <c r="K131" s="24">
         <v>9</v>
       </c>
-      <c r="L131" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="5:12">
+      <c r="L131" s="24">
+        <v>0</v>
+      </c>
+      <c r="M131" s="24">
+        <v>0</v>
+      </c>
+      <c r="N131" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="5:14">
       <c r="E132" s="24">
         <v>8</v>
       </c>
       <c r="F132" s="24" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G132" s="25">
         <v>5544</v>
@@ -3849,16 +3921,22 @@
       <c r="K132" s="24">
         <v>10</v>
       </c>
-      <c r="L132" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="5:12">
+      <c r="L132" s="24">
+        <v>0</v>
+      </c>
+      <c r="M132" s="24">
+        <v>0</v>
+      </c>
+      <c r="N132" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="5:14">
       <c r="E133" s="24">
         <v>9</v>
       </c>
       <c r="F133" s="24" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G133" s="25">
         <v>9530.4</v>
@@ -3875,16 +3953,22 @@
       <c r="K133" s="24">
         <v>11</v>
       </c>
-      <c r="L133" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="5:12">
+      <c r="L133" s="24">
+        <v>0</v>
+      </c>
+      <c r="M133" s="24">
+        <v>0</v>
+      </c>
+      <c r="N133" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="5:14">
       <c r="E134" s="24">
         <v>10</v>
       </c>
       <c r="F134" s="24" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G134" s="25">
         <v>16581.84</v>
@@ -3901,16 +3985,22 @@
       <c r="K134" s="24">
         <v>12</v>
       </c>
-      <c r="L134" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="5:12">
+      <c r="L134" s="24">
+        <v>0</v>
+      </c>
+      <c r="M134" s="24">
+        <v>0</v>
+      </c>
+      <c r="N134" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="5:14">
       <c r="E135" s="24">
         <v>11</v>
       </c>
       <c r="F135" s="24" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G135" s="25">
         <v>28723.464</v>
@@ -3927,16 +4017,22 @@
       <c r="K135" s="24">
         <v>13</v>
       </c>
-      <c r="L135" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="5:12">
+      <c r="L135" s="24">
+        <v>0</v>
+      </c>
+      <c r="M135" s="24">
+        <v>0</v>
+      </c>
+      <c r="N135" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="5:14">
       <c r="E136" s="24">
         <v>12</v>
       </c>
       <c r="F136" s="24" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G136" s="25">
         <v>49835.8344</v>
@@ -3953,16 +4049,22 @@
       <c r="K136" s="24">
         <v>14</v>
       </c>
-      <c r="L136" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="5:12">
+      <c r="L136" s="24">
+        <v>0</v>
+      </c>
+      <c r="M136" s="24">
+        <v>0</v>
+      </c>
+      <c r="N136" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="5:14">
       <c r="E137" s="24">
         <v>13</v>
       </c>
       <c r="F137" s="24" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G137" s="25">
         <v>94271.15808</v>
@@ -3979,16 +4081,22 @@
       <c r="K137" s="24">
         <v>15</v>
       </c>
-      <c r="L137" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="5:12">
+      <c r="L137" s="24">
+        <v>0</v>
+      </c>
+      <c r="M137" s="24">
+        <v>0</v>
+      </c>
+      <c r="N137" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="5:14">
       <c r="E138" s="24">
         <v>14</v>
       </c>
       <c r="F138" s="24" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G138" s="25">
         <v>187339.090224</v>
@@ -4005,16 +4113,22 @@
       <c r="K138" s="24">
         <v>16</v>
       </c>
-      <c r="L138" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="5:12">
+      <c r="L138" s="24">
+        <v>0</v>
+      </c>
+      <c r="M138" s="24">
+        <v>0</v>
+      </c>
+      <c r="N138" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="5:14">
       <c r="E139" s="24">
         <v>15</v>
       </c>
       <c r="F139" s="24" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G139" s="25">
         <v>394254.3476256</v>
@@ -4031,16 +4145,22 @@
       <c r="K139" s="24">
         <v>17</v>
       </c>
-      <c r="L139" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="5:12">
+      <c r="L139" s="24">
+        <v>0</v>
+      </c>
+      <c r="M139" s="24">
+        <v>0</v>
+      </c>
+      <c r="N139" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="5:14">
       <c r="E140" s="24">
         <v>16</v>
       </c>
       <c r="F140" s="24" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G140" s="25">
         <v>872390.1567744</v>
@@ -4057,16 +4177,22 @@
       <c r="K140" s="24">
         <v>18</v>
       </c>
-      <c r="L140" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="5:12">
+      <c r="L140" s="24">
+        <v>0</v>
+      </c>
+      <c r="M140" s="24">
+        <v>0</v>
+      </c>
+      <c r="N140" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="5:14">
       <c r="E141" s="24">
         <v>17</v>
       </c>
       <c r="F141" s="24" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G141" s="25">
         <v>2026631.20704</v>
@@ -4083,16 +4209,22 @@
       <c r="K141" s="24">
         <v>19</v>
       </c>
-      <c r="L141" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="5:12">
+      <c r="L141" s="24">
+        <v>0</v>
+      </c>
+      <c r="M141" s="24">
+        <v>0</v>
+      </c>
+      <c r="N141" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="5:14">
       <c r="E142" s="24">
         <v>18</v>
       </c>
       <c r="F142" s="24" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G142" s="25">
         <v>4928336.31848448</v>
@@ -4109,7 +4241,13 @@
       <c r="K142" s="24">
         <v>20</v>
       </c>
-      <c r="L142" s="7">
+      <c r="L142" s="24">
+        <v>0</v>
+      </c>
+      <c r="M142" s="24">
+        <v>0</v>
+      </c>
+      <c r="N142" s="26">
         <v>0</v>
       </c>
     </row>
@@ -4118,7 +4256,7 @@
         <v>6</v>
       </c>
       <c r="D144" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="146" spans="4:5">
@@ -4126,7 +4264,7 @@
         <v>6.1</v>
       </c>
       <c r="E146" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="148" spans="5:7">
@@ -4145,9 +4283,9 @@
         <v>1</v>
       </c>
       <c r="F149" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G149" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="G149" s="27" t="s">
         <v>41</v>
       </c>
     </row>
@@ -4158,7 +4296,7 @@
       <c r="F150" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G150" s="27" t="s">
+      <c r="G150" s="28" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4167,9 +4305,9 @@
         <v>3</v>
       </c>
       <c r="F151" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G151" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="G151" s="28" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4178,7 +4316,7 @@
         <v>6.2</v>
       </c>
       <c r="E154" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="156" spans="5:7">
@@ -4197,10 +4335,10 @@
         <v>1</v>
       </c>
       <c r="F157" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G157" s="9" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="160" spans="4:5">
@@ -4208,7 +4346,7 @@
         <v>6.3</v>
       </c>
       <c r="E160" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="162" spans="5:7">
@@ -4227,10 +4365,10 @@
         <v>1</v>
       </c>
       <c r="F163" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G163" s="28" t="s">
-        <v>122</v>
+        <v>125</v>
+      </c>
+      <c r="G163" s="29" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="166" spans="4:5">
@@ -4238,7 +4376,7 @@
         <v>6.4</v>
       </c>
       <c r="E166" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="168" spans="5:7">
@@ -4257,10 +4395,10 @@
         <v>1</v>
       </c>
       <c r="F169" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G169" s="28" t="s">
-        <v>125</v>
+        <v>128</v>
+      </c>
+      <c r="G169" s="29" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="170" spans="5:7">
@@ -4268,9 +4406,9 @@
         <v>2</v>
       </c>
       <c r="F170" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G170" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="G170" s="28" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4279,9 +4417,9 @@
         <v>3</v>
       </c>
       <c r="F171" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G171" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="G171" s="28" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4290,7 +4428,7 @@
         <v>7</v>
       </c>
       <c r="D173" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="175" spans="5:9">
@@ -4304,10 +4442,10 @@
         <v>31</v>
       </c>
       <c r="H175" s="3" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="I175" s="3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="176" spans="5:9">
@@ -4315,16 +4453,16 @@
         <v>1</v>
       </c>
       <c r="F176" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G176" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H176" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="I176" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="177" spans="5:9">
@@ -4332,14 +4470,14 @@
         <v>2</v>
       </c>
       <c r="F177" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G177" s="7"/>
       <c r="H177" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="I177" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="178" spans="5:9">
@@ -4347,14 +4485,14 @@
         <v>3</v>
       </c>
       <c r="F178" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G178" s="7"/>
       <c r="H178" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="I178" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/7月制作内容/系统文档/【蔡文吉】我的房间文档.xlsx
+++ b/7月制作内容/系统文档/【蔡文吉】我的房间文档.xlsx
@@ -285,13 +285,16 @@
     <t>晋升所需经验</t>
   </si>
   <si>
-    <t>份例次数</t>
-  </si>
-  <si>
-    <t>杂务次数</t>
-  </si>
-  <si>
-    <t>智斗次数</t>
+    <t>份例次数
+获取铜钱</t>
+  </si>
+  <si>
+    <t>杂务次数
+获取阅历</t>
+  </si>
+  <si>
+    <t>智斗次数
+获取声望</t>
   </si>
   <si>
     <t>家务次数</t>
@@ -446,10 +449,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0;[Red]0"/>
   </numFmts>
   <fonts count="20">
@@ -474,66 +477,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -574,6 +517,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -583,17 +587,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -626,7 +629,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -638,13 +659,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -656,7 +689,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -668,13 +719,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -686,19 +791,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -710,103 +803,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -874,6 +877,66 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -894,71 +957,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -979,10 +982,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -991,16 +994,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1012,16 +1015,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1030,98 +1033,98 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1193,6 +1196,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3029,24 +3035,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12">
-      <c r="B1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="K1" s="30" t="s">
+      <c r="B1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="K1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="30"/>
+      <c r="L1" s="31"/>
     </row>
     <row r="2" spans="2:12">
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
     </row>
     <row r="3" spans="2:11">
       <c r="B3" s="3" t="s">
@@ -3061,7 +3067,7 @@
       <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="32" t="s">
+      <c r="K3" s="33" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3069,7 +3075,7 @@
       <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="31">
+      <c r="C4" s="32">
         <v>43647</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -3078,7 +3084,7 @@
       <c r="E4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="33" t="s">
+      <c r="K4" s="34" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3086,66 +3092,66 @@
       <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="32">
         <v>43651</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="29" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="33" t="s">
+      <c r="K5" s="34" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="12:12">
-      <c r="L6" s="33" t="s">
+      <c r="L6" s="34" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="11:11">
-      <c r="K7" s="33" t="s">
+      <c r="K7" s="34" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="12:12">
-      <c r="L8" s="33" t="s">
+      <c r="L8" s="34" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="11:11">
-      <c r="K9" s="33" t="s">
+      <c r="K9" s="34" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="11:11">
-      <c r="K10" s="33" t="s">
+      <c r="K10" s="34" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="12:12">
-      <c r="L11" s="33" t="s">
+      <c r="L11" s="34" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="12:12">
-      <c r="L12" s="33" t="s">
+      <c r="L12" s="34" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="12:12">
-      <c r="L13" s="33" t="s">
+      <c r="L13" s="34" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="12:12">
-      <c r="L14" s="33" t="s">
+      <c r="L14" s="34" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="15" spans="11:11">
-      <c r="K15" s="33" t="s">
+      <c r="K15" s="34" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3180,8 +3186,8 @@
   <sheetPr/>
   <dimension ref="C2:N178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="M112" sqref="M112"/>
+    <sheetView tabSelected="1" topLeftCell="E111" workbookViewId="0">
+      <selection activeCell="J143" sqref="J143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3605,7 +3611,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="123" spans="4:14">
+    <row r="123" ht="27" spans="4:14">
       <c r="D123" t="s">
         <v>86</v>
       </c>
@@ -3618,13 +3624,13 @@
       <c r="G123" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="H123" s="12" t="s">
+      <c r="H123" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="I123" s="12" t="s">
+      <c r="I123" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="J123" s="12" t="s">
+      <c r="J123" s="24" t="s">
         <v>91</v>
       </c>
       <c r="K123" s="12" t="s">
@@ -3676,578 +3682,578 @@
       </c>
     </row>
     <row r="125" spans="5:14">
-      <c r="E125" s="24">
+      <c r="E125" s="25">
         <v>1</v>
       </c>
-      <c r="F125" s="24" t="s">
+      <c r="F125" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="G125" s="25">
-        <v>0</v>
-      </c>
-      <c r="H125" s="24">
+      <c r="G125" s="26">
+        <v>0</v>
+      </c>
+      <c r="H125" s="25">
         <v>3</v>
       </c>
-      <c r="I125" s="24">
+      <c r="I125" s="25">
         <v>3</v>
       </c>
-      <c r="J125" s="24">
+      <c r="J125" s="25">
         <v>3</v>
       </c>
-      <c r="K125" s="24">
+      <c r="K125" s="25">
         <v>3</v>
       </c>
-      <c r="L125" s="24">
-        <v>0</v>
-      </c>
-      <c r="M125" s="24">
-        <v>0</v>
-      </c>
-      <c r="N125" s="26">
+      <c r="L125" s="25">
+        <v>0</v>
+      </c>
+      <c r="M125" s="25">
+        <v>0</v>
+      </c>
+      <c r="N125" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="5:14">
-      <c r="E126" s="24">
+      <c r="E126" s="25">
         <v>2</v>
       </c>
-      <c r="F126" s="24" t="s">
+      <c r="F126" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="G126" s="25">
+      <c r="G126" s="26">
         <v>240</v>
       </c>
-      <c r="H126" s="24">
+      <c r="H126" s="25">
         <v>4</v>
       </c>
-      <c r="I126" s="24">
+      <c r="I126" s="25">
         <v>4</v>
       </c>
-      <c r="J126" s="24">
+      <c r="J126" s="25">
         <v>4</v>
       </c>
-      <c r="K126" s="24">
+      <c r="K126" s="25">
         <v>4</v>
       </c>
-      <c r="L126" s="24">
-        <v>0</v>
-      </c>
-      <c r="M126" s="24">
-        <v>0</v>
-      </c>
-      <c r="N126" s="26">
+      <c r="L126" s="25">
+        <v>0</v>
+      </c>
+      <c r="M126" s="25">
+        <v>0</v>
+      </c>
+      <c r="N126" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="5:14">
-      <c r="E127" s="24">
+      <c r="E127" s="25">
         <v>3</v>
       </c>
-      <c r="F127" s="24" t="s">
+      <c r="F127" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="G127" s="25">
+      <c r="G127" s="26">
         <v>480</v>
       </c>
-      <c r="H127" s="24">
+      <c r="H127" s="25">
         <v>5</v>
       </c>
-      <c r="I127" s="24">
+      <c r="I127" s="25">
         <v>5</v>
       </c>
-      <c r="J127" s="24">
+      <c r="J127" s="25">
         <v>5</v>
       </c>
-      <c r="K127" s="24">
+      <c r="K127" s="25">
         <v>5</v>
       </c>
-      <c r="L127" s="24">
-        <v>0</v>
-      </c>
-      <c r="M127" s="24">
-        <v>0</v>
-      </c>
-      <c r="N127" s="26">
+      <c r="L127" s="25">
+        <v>0</v>
+      </c>
+      <c r="M127" s="25">
+        <v>0</v>
+      </c>
+      <c r="N127" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="5:14">
-      <c r="E128" s="24">
+      <c r="E128" s="25">
         <v>4</v>
       </c>
-      <c r="F128" s="24" t="s">
+      <c r="F128" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="G128" s="25">
+      <c r="G128" s="26">
         <v>720</v>
       </c>
-      <c r="H128" s="24">
+      <c r="H128" s="25">
         <v>6</v>
       </c>
-      <c r="I128" s="24">
+      <c r="I128" s="25">
         <v>6</v>
       </c>
-      <c r="J128" s="24">
+      <c r="J128" s="25">
         <v>6</v>
       </c>
-      <c r="K128" s="24">
+      <c r="K128" s="25">
         <v>6</v>
       </c>
-      <c r="L128" s="24">
-        <v>0</v>
-      </c>
-      <c r="M128" s="24">
-        <v>0</v>
-      </c>
-      <c r="N128" s="26">
+      <c r="L128" s="25">
+        <v>0</v>
+      </c>
+      <c r="M128" s="25">
+        <v>0</v>
+      </c>
+      <c r="N128" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="5:14">
-      <c r="E129" s="24">
+      <c r="E129" s="25">
         <v>5</v>
       </c>
-      <c r="F129" s="24" t="s">
+      <c r="F129" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="G129" s="25">
+      <c r="G129" s="26">
         <v>1200</v>
       </c>
-      <c r="H129" s="24">
+      <c r="H129" s="25">
         <v>7</v>
       </c>
-      <c r="I129" s="24">
+      <c r="I129" s="25">
         <v>7</v>
       </c>
-      <c r="J129" s="24">
+      <c r="J129" s="25">
         <v>7</v>
       </c>
-      <c r="K129" s="24">
+      <c r="K129" s="25">
         <v>7</v>
       </c>
-      <c r="L129" s="24">
-        <v>0</v>
-      </c>
-      <c r="M129" s="24">
-        <v>0</v>
-      </c>
-      <c r="N129" s="26">
+      <c r="L129" s="25">
+        <v>0</v>
+      </c>
+      <c r="M129" s="25">
+        <v>0</v>
+      </c>
+      <c r="N129" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="5:14">
-      <c r="E130" s="24">
+      <c r="E130" s="25">
         <v>6</v>
       </c>
-      <c r="F130" s="24" t="s">
+      <c r="F130" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="G130" s="25">
+      <c r="G130" s="26">
         <v>1920</v>
       </c>
-      <c r="H130" s="24">
+      <c r="H130" s="25">
         <v>8</v>
       </c>
-      <c r="I130" s="24">
+      <c r="I130" s="25">
         <v>8</v>
       </c>
-      <c r="J130" s="24">
+      <c r="J130" s="25">
         <v>8</v>
       </c>
-      <c r="K130" s="24">
+      <c r="K130" s="25">
         <v>8</v>
       </c>
-      <c r="L130" s="24">
-        <v>0</v>
-      </c>
-      <c r="M130" s="24">
-        <v>0</v>
-      </c>
-      <c r="N130" s="26">
+      <c r="L130" s="25">
+        <v>0</v>
+      </c>
+      <c r="M130" s="25">
+        <v>0</v>
+      </c>
+      <c r="N130" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="131" spans="5:14">
-      <c r="E131" s="24">
+      <c r="E131" s="25">
         <v>7</v>
       </c>
-      <c r="F131" s="24" t="s">
+      <c r="F131" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="G131" s="25">
+      <c r="G131" s="26">
         <v>3120</v>
       </c>
-      <c r="H131" s="24">
+      <c r="H131" s="25">
         <v>9</v>
       </c>
-      <c r="I131" s="24">
+      <c r="I131" s="25">
         <v>9</v>
       </c>
-      <c r="J131" s="24">
+      <c r="J131" s="25">
         <v>9</v>
       </c>
-      <c r="K131" s="24">
+      <c r="K131" s="25">
         <v>9</v>
       </c>
-      <c r="L131" s="24">
-        <v>0</v>
-      </c>
-      <c r="M131" s="24">
-        <v>0</v>
-      </c>
-      <c r="N131" s="26">
+      <c r="L131" s="25">
+        <v>0</v>
+      </c>
+      <c r="M131" s="25">
+        <v>0</v>
+      </c>
+      <c r="N131" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="5:14">
-      <c r="E132" s="24">
+      <c r="E132" s="25">
         <v>8</v>
       </c>
-      <c r="F132" s="24" t="s">
+      <c r="F132" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="G132" s="25">
+      <c r="G132" s="26">
         <v>5544</v>
       </c>
-      <c r="H132" s="24">
+      <c r="H132" s="25">
         <v>10</v>
       </c>
-      <c r="I132" s="24">
+      <c r="I132" s="25">
         <v>10</v>
       </c>
-      <c r="J132" s="24">
+      <c r="J132" s="25">
         <v>10</v>
       </c>
-      <c r="K132" s="24">
+      <c r="K132" s="25">
         <v>10</v>
       </c>
-      <c r="L132" s="24">
-        <v>0</v>
-      </c>
-      <c r="M132" s="24">
-        <v>0</v>
-      </c>
-      <c r="N132" s="26">
+      <c r="L132" s="25">
+        <v>0</v>
+      </c>
+      <c r="M132" s="25">
+        <v>0</v>
+      </c>
+      <c r="N132" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="133" spans="5:14">
-      <c r="E133" s="24">
+      <c r="E133" s="25">
         <v>9</v>
       </c>
-      <c r="F133" s="24" t="s">
+      <c r="F133" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="G133" s="25">
+      <c r="G133" s="26">
         <v>9530.4</v>
       </c>
-      <c r="H133" s="24">
+      <c r="H133" s="25">
         <v>11</v>
       </c>
-      <c r="I133" s="24">
+      <c r="I133" s="25">
         <v>11</v>
       </c>
-      <c r="J133" s="24">
+      <c r="J133" s="25">
         <v>11</v>
       </c>
-      <c r="K133" s="24">
+      <c r="K133" s="25">
         <v>11</v>
       </c>
-      <c r="L133" s="24">
-        <v>0</v>
-      </c>
-      <c r="M133" s="24">
-        <v>0</v>
-      </c>
-      <c r="N133" s="26">
+      <c r="L133" s="25">
+        <v>0</v>
+      </c>
+      <c r="M133" s="25">
+        <v>0</v>
+      </c>
+      <c r="N133" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="134" spans="5:14">
-      <c r="E134" s="24">
+      <c r="E134" s="25">
         <v>10</v>
       </c>
-      <c r="F134" s="24" t="s">
+      <c r="F134" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="G134" s="25">
+      <c r="G134" s="26">
         <v>16581.84</v>
       </c>
-      <c r="H134" s="24">
+      <c r="H134" s="25">
         <v>12</v>
       </c>
-      <c r="I134" s="24">
+      <c r="I134" s="25">
         <v>12</v>
       </c>
-      <c r="J134" s="24">
+      <c r="J134" s="25">
         <v>12</v>
       </c>
-      <c r="K134" s="24">
+      <c r="K134" s="25">
         <v>12</v>
       </c>
-      <c r="L134" s="24">
-        <v>0</v>
-      </c>
-      <c r="M134" s="24">
-        <v>0</v>
-      </c>
-      <c r="N134" s="26">
+      <c r="L134" s="25">
+        <v>0</v>
+      </c>
+      <c r="M134" s="25">
+        <v>0</v>
+      </c>
+      <c r="N134" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="5:14">
-      <c r="E135" s="24">
+      <c r="E135" s="25">
         <v>11</v>
       </c>
-      <c r="F135" s="24" t="s">
+      <c r="F135" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="G135" s="25">
+      <c r="G135" s="26">
         <v>28723.464</v>
       </c>
-      <c r="H135" s="24">
+      <c r="H135" s="25">
         <v>13</v>
       </c>
-      <c r="I135" s="24">
+      <c r="I135" s="25">
         <v>13</v>
       </c>
-      <c r="J135" s="24">
+      <c r="J135" s="25">
         <v>13</v>
       </c>
-      <c r="K135" s="24">
+      <c r="K135" s="25">
         <v>13</v>
       </c>
-      <c r="L135" s="24">
-        <v>0</v>
-      </c>
-      <c r="M135" s="24">
-        <v>0</v>
-      </c>
-      <c r="N135" s="26">
+      <c r="L135" s="25">
+        <v>0</v>
+      </c>
+      <c r="M135" s="25">
+        <v>0</v>
+      </c>
+      <c r="N135" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="5:14">
-      <c r="E136" s="24">
+      <c r="E136" s="25">
         <v>12</v>
       </c>
-      <c r="F136" s="24" t="s">
+      <c r="F136" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="G136" s="25">
+      <c r="G136" s="26">
         <v>49835.8344</v>
       </c>
-      <c r="H136" s="24">
+      <c r="H136" s="25">
         <v>14</v>
       </c>
-      <c r="I136" s="24">
+      <c r="I136" s="25">
         <v>14</v>
       </c>
-      <c r="J136" s="24">
+      <c r="J136" s="25">
         <v>14</v>
       </c>
-      <c r="K136" s="24">
+      <c r="K136" s="25">
         <v>14</v>
       </c>
-      <c r="L136" s="24">
-        <v>0</v>
-      </c>
-      <c r="M136" s="24">
-        <v>0</v>
-      </c>
-      <c r="N136" s="26">
+      <c r="L136" s="25">
+        <v>0</v>
+      </c>
+      <c r="M136" s="25">
+        <v>0</v>
+      </c>
+      <c r="N136" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="137" spans="5:14">
-      <c r="E137" s="24">
+      <c r="E137" s="25">
         <v>13</v>
       </c>
-      <c r="F137" s="24" t="s">
+      <c r="F137" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="G137" s="25">
+      <c r="G137" s="26">
         <v>94271.15808</v>
       </c>
-      <c r="H137" s="24">
+      <c r="H137" s="25">
         <v>15</v>
       </c>
-      <c r="I137" s="24">
+      <c r="I137" s="25">
         <v>15</v>
       </c>
-      <c r="J137" s="24">
+      <c r="J137" s="25">
         <v>15</v>
       </c>
-      <c r="K137" s="24">
+      <c r="K137" s="25">
         <v>15</v>
       </c>
-      <c r="L137" s="24">
-        <v>0</v>
-      </c>
-      <c r="M137" s="24">
-        <v>0</v>
-      </c>
-      <c r="N137" s="26">
+      <c r="L137" s="25">
+        <v>0</v>
+      </c>
+      <c r="M137" s="25">
+        <v>0</v>
+      </c>
+      <c r="N137" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="138" spans="5:14">
-      <c r="E138" s="24">
+      <c r="E138" s="25">
         <v>14</v>
       </c>
-      <c r="F138" s="24" t="s">
+      <c r="F138" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="G138" s="25">
+      <c r="G138" s="26">
         <v>187339.090224</v>
       </c>
-      <c r="H138" s="24">
+      <c r="H138" s="25">
         <v>16</v>
       </c>
-      <c r="I138" s="24">
+      <c r="I138" s="25">
         <v>16</v>
       </c>
-      <c r="J138" s="24">
+      <c r="J138" s="25">
         <v>16</v>
       </c>
-      <c r="K138" s="24">
+      <c r="K138" s="25">
         <v>16</v>
       </c>
-      <c r="L138" s="24">
-        <v>0</v>
-      </c>
-      <c r="M138" s="24">
-        <v>0</v>
-      </c>
-      <c r="N138" s="26">
+      <c r="L138" s="25">
+        <v>0</v>
+      </c>
+      <c r="M138" s="25">
+        <v>0</v>
+      </c>
+      <c r="N138" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="139" spans="5:14">
-      <c r="E139" s="24">
+      <c r="E139" s="25">
         <v>15</v>
       </c>
-      <c r="F139" s="24" t="s">
+      <c r="F139" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="G139" s="25">
+      <c r="G139" s="26">
         <v>394254.3476256</v>
       </c>
-      <c r="H139" s="24">
+      <c r="H139" s="25">
         <v>17</v>
       </c>
-      <c r="I139" s="24">
+      <c r="I139" s="25">
         <v>17</v>
       </c>
-      <c r="J139" s="24">
+      <c r="J139" s="25">
         <v>17</v>
       </c>
-      <c r="K139" s="24">
+      <c r="K139" s="25">
         <v>17</v>
       </c>
-      <c r="L139" s="24">
-        <v>0</v>
-      </c>
-      <c r="M139" s="24">
-        <v>0</v>
-      </c>
-      <c r="N139" s="26">
+      <c r="L139" s="25">
+        <v>0</v>
+      </c>
+      <c r="M139" s="25">
+        <v>0</v>
+      </c>
+      <c r="N139" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="140" spans="5:14">
-      <c r="E140" s="24">
+      <c r="E140" s="25">
         <v>16</v>
       </c>
-      <c r="F140" s="24" t="s">
+      <c r="F140" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="G140" s="25">
+      <c r="G140" s="26">
         <v>872390.1567744</v>
       </c>
-      <c r="H140" s="24">
+      <c r="H140" s="25">
         <v>18</v>
       </c>
-      <c r="I140" s="24">
+      <c r="I140" s="25">
         <v>18</v>
       </c>
-      <c r="J140" s="24">
+      <c r="J140" s="25">
         <v>18</v>
       </c>
-      <c r="K140" s="24">
+      <c r="K140" s="25">
         <v>18</v>
       </c>
-      <c r="L140" s="24">
-        <v>0</v>
-      </c>
-      <c r="M140" s="24">
-        <v>0</v>
-      </c>
-      <c r="N140" s="26">
+      <c r="L140" s="25">
+        <v>0</v>
+      </c>
+      <c r="M140" s="25">
+        <v>0</v>
+      </c>
+      <c r="N140" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="141" spans="5:14">
-      <c r="E141" s="24">
+      <c r="E141" s="25">
         <v>17</v>
       </c>
-      <c r="F141" s="24" t="s">
+      <c r="F141" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="G141" s="25">
+      <c r="G141" s="26">
         <v>2026631.20704</v>
       </c>
-      <c r="H141" s="24">
+      <c r="H141" s="25">
         <v>19</v>
       </c>
-      <c r="I141" s="24">
+      <c r="I141" s="25">
         <v>19</v>
       </c>
-      <c r="J141" s="24">
+      <c r="J141" s="25">
         <v>19</v>
       </c>
-      <c r="K141" s="24">
+      <c r="K141" s="25">
         <v>19</v>
       </c>
-      <c r="L141" s="24">
-        <v>0</v>
-      </c>
-      <c r="M141" s="24">
-        <v>0</v>
-      </c>
-      <c r="N141" s="26">
+      <c r="L141" s="25">
+        <v>0</v>
+      </c>
+      <c r="M141" s="25">
+        <v>0</v>
+      </c>
+      <c r="N141" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="142" spans="5:14">
-      <c r="E142" s="24">
+      <c r="E142" s="25">
         <v>18</v>
       </c>
-      <c r="F142" s="24" t="s">
+      <c r="F142" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="G142" s="25">
+      <c r="G142" s="26">
         <v>4928336.31848448</v>
       </c>
-      <c r="H142" s="24">
+      <c r="H142" s="25">
         <v>20</v>
       </c>
-      <c r="I142" s="24">
+      <c r="I142" s="25">
         <v>20</v>
       </c>
-      <c r="J142" s="24">
+      <c r="J142" s="25">
         <v>20</v>
       </c>
-      <c r="K142" s="24">
+      <c r="K142" s="25">
         <v>20</v>
       </c>
-      <c r="L142" s="24">
-        <v>0</v>
-      </c>
-      <c r="M142" s="24">
-        <v>0</v>
-      </c>
-      <c r="N142" s="26">
+      <c r="L142" s="25">
+        <v>0</v>
+      </c>
+      <c r="M142" s="25">
+        <v>0</v>
+      </c>
+      <c r="N142" s="27">
         <v>0</v>
       </c>
     </row>
@@ -4285,7 +4291,7 @@
       <c r="F149" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="G149" s="27" t="s">
+      <c r="G149" s="28" t="s">
         <v>41</v>
       </c>
     </row>
@@ -4296,7 +4302,7 @@
       <c r="F150" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G150" s="28" t="s">
+      <c r="G150" s="29" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4307,7 +4313,7 @@
       <c r="F151" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="G151" s="28" t="s">
+      <c r="G151" s="29" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4367,7 +4373,7 @@
       <c r="F163" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="G163" s="29" t="s">
+      <c r="G163" s="30" t="s">
         <v>126</v>
       </c>
     </row>
@@ -4397,7 +4403,7 @@
       <c r="F169" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="G169" s="29" t="s">
+      <c r="G169" s="30" t="s">
         <v>129</v>
       </c>
     </row>
@@ -4408,7 +4414,7 @@
       <c r="F170" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="G170" s="28" t="s">
+      <c r="G170" s="29" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4419,7 +4425,7 @@
       <c r="F171" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="G171" s="28" t="s">
+      <c r="G171" s="29" t="s">
         <v>60</v>
       </c>
     </row>
